--- a/example data/group/25 mm - Grand Standard Deviation Group Stepcycles.xlsx
+++ b/example data/group/25 mm - Grand Standard Deviation Group Stepcycles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK26"/>
+  <dimension ref="A1:AZ26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,170 +451,245 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Nose x</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Nose y</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Ear base x</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Ear base y</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Front paw tao x</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Front paw tao y</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Wrist x</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Wrist y</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Elbow x</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Elbow y</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Lower Shoulder x</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Lower Shoulder y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Upper Shoulder x</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Upper Shoulder y</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Iliac Crest x</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Iliac Crest y</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Hip x</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Hip y</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Knee x</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Knee y</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Ankle x</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Ankle y</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Hind paw tao x</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Hind paw tao y</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Tail base x</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Tail base y</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Tail center x</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Tail center y</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Tail tip x</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Tail tip y</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Ankle Angle</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Knee Angle</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Hip Angle</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Hind paw tao Velocity</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Hind paw tao Acceleration</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Ankle Velocity</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Ankle Acceleration</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Knee Velocity</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Knee Acceleration</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Hip Velocity</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Hip Acceleration</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Iliac Crest Velocity</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>Iliac Crest Acceleration</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Ankle Angle Velocity</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>Ankle Angle Acceleration</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>Knee Angle Velocity</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>Knee Angle Acceleration</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Hip Angle Velocity</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Hip Angle Acceleration</t>
         </is>
@@ -631,105 +706,150 @@
         <v>0.4898979485566356</v>
       </c>
       <c r="D2" t="n">
+        <v>27.43765866359855</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.3786957732054314</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
+        <v>28.33472365866917</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.8346235007429819</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>22.51886275409603</v>
+      </c>
+      <c r="I2" t="n">
         <v>1.423911337884846</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>22.85883001535069</v>
+      </c>
+      <c r="K2" t="n">
         <v>1.064630302131073</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
+        <v>26.36065867118458</v>
+      </c>
+      <c r="M2" t="n">
         <v>1.033125390901625</v>
       </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
+        <v>27.47125206024069</v>
+      </c>
+      <c r="O2" t="n">
         <v>0.6669420078716514</v>
       </c>
-      <c r="J2" t="n">
+      <c r="P2" t="n">
+        <v>27.33073316896252</v>
+      </c>
+      <c r="Q2" t="n">
         <v>1.203449213040958</v>
       </c>
-      <c r="K2" t="n">
+      <c r="R2" t="n">
+        <v>27.15277974427122</v>
+      </c>
+      <c r="S2" t="n">
         <v>3.579692301315415</v>
       </c>
-      <c r="L2" t="n">
+      <c r="T2" t="n">
+        <v>27.20020783772192</v>
+      </c>
+      <c r="U2" t="n">
         <v>2.81815380065798</v>
       </c>
-      <c r="M2" t="n">
+      <c r="V2" t="n">
+        <v>26.45463374164463</v>
+      </c>
+      <c r="W2" t="n">
         <v>1.922665626756541</v>
       </c>
-      <c r="N2" t="n">
+      <c r="X2" t="n">
+        <v>25.51947080023866</v>
+      </c>
+      <c r="Y2" t="n">
         <v>3.566663527391481</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Z2" t="n">
+        <v>21.73009212017945</v>
+      </c>
+      <c r="AA2" t="n">
         <v>1.641242615079672</v>
       </c>
-      <c r="P2" t="n">
+      <c r="AB2" t="n">
+        <v>28.33803678880349</v>
+      </c>
+      <c r="AC2" t="n">
         <v>5.991618847736911</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="AD2" t="n">
+        <v>25.17513032217229</v>
+      </c>
+      <c r="AE2" t="n">
         <v>6.680537270452313</v>
       </c>
-      <c r="R2" t="n">
+      <c r="AF2" t="n">
+        <v>31.13438019732126</v>
+      </c>
+      <c r="AG2" t="n">
         <v>10.30356528481517</v>
       </c>
-      <c r="S2" t="n">
+      <c r="AH2" t="n">
         <v>13.19990591039292</v>
       </c>
-      <c r="T2" t="n">
+      <c r="AI2" t="n">
         <v>25.5035591184027</v>
       </c>
-      <c r="U2" t="n">
+      <c r="AJ2" t="n">
         <v>11.4446917284967</v>
       </c>
-      <c r="V2" t="n">
+      <c r="AK2" t="n">
         <v>2.593468063572032</v>
       </c>
-      <c r="W2" t="n">
+      <c r="AL2" t="n">
         <v>0.9237907699561771</v>
       </c>
-      <c r="X2" t="n">
+      <c r="AM2" t="n">
         <v>1.742521753399557</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="AN2" t="n">
         <v>0.7445667122351218</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AO2" t="n">
         <v>1.064379099410168</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AP2" t="n">
         <v>0.2783291574448492</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AQ2" t="n">
         <v>0.3841941158754731</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AR2" t="n">
         <v>0.2051790347128576</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AS2" t="n">
         <v>0.5097810830840827</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AT2" t="n">
         <v>0.3341891201686966</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AU2" t="n">
         <v>4.442578609822389</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AV2" t="n">
         <v>8.571921070418879</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AW2" t="n">
         <v>2.504833622659569</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AX2" t="n">
         <v>6.70512975708108</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AY2" t="n">
         <v>6.077929795534825</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AZ2" t="n">
         <v>4.180525399962232</v>
       </c>
     </row>
@@ -744,105 +864,150 @@
         <v>0.4898979485566356</v>
       </c>
       <c r="D3" t="n">
+        <v>27.17923374603733</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.1810504287025981</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
+        <v>27.96951147355221</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.9464276625802216</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
+        <v>20.72783610603377</v>
+      </c>
+      <c r="I3" t="n">
         <v>0.8886494896678395</v>
       </c>
-      <c r="G3" t="n">
+      <c r="J3" t="n">
+        <v>21.23821275495159</v>
+      </c>
+      <c r="K3" t="n">
         <v>0.5936663244513365</v>
       </c>
-      <c r="H3" t="n">
+      <c r="L3" t="n">
+        <v>25.60166409805534</v>
+      </c>
+      <c r="M3" t="n">
         <v>1.568986958874968</v>
       </c>
-      <c r="I3" t="n">
+      <c r="N3" t="n">
+        <v>26.80282596629457</v>
+      </c>
+      <c r="O3" t="n">
         <v>0.9678699320648247</v>
       </c>
-      <c r="J3" t="n">
+      <c r="P3" t="n">
+        <v>26.78619268890373</v>
+      </c>
+      <c r="Q3" t="n">
         <v>1.307642554225243</v>
       </c>
-      <c r="K3" t="n">
+      <c r="R3" t="n">
+        <v>27.66104166093156</v>
+      </c>
+      <c r="S3" t="n">
         <v>3.462879429725356</v>
       </c>
-      <c r="L3" t="n">
+      <c r="T3" t="n">
+        <v>27.67765016466128</v>
+      </c>
+      <c r="U3" t="n">
         <v>2.956648174271087</v>
       </c>
-      <c r="M3" t="n">
+      <c r="V3" t="n">
+        <v>28.11171053483663</v>
+      </c>
+      <c r="W3" t="n">
         <v>2.588351156375358</v>
       </c>
-      <c r="N3" t="n">
+      <c r="X3" t="n">
+        <v>27.66506383756452</v>
+      </c>
+      <c r="Y3" t="n">
         <v>2.903035196111787</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Z3" t="n">
+        <v>27.29666872358211</v>
+      </c>
+      <c r="AA3" t="n">
         <v>2.075522731054149</v>
       </c>
-      <c r="P3" t="n">
+      <c r="AB3" t="n">
+        <v>27.78670187968462</v>
+      </c>
+      <c r="AC3" t="n">
         <v>5.967353003740264</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="AD3" t="n">
+        <v>24.71646243553292</v>
+      </c>
+      <c r="AE3" t="n">
         <v>6.601046102441091</v>
       </c>
-      <c r="R3" t="n">
+      <c r="AF3" t="n">
+        <v>13.61162431563417</v>
+      </c>
+      <c r="AG3" t="n">
         <v>10.85128895693099</v>
       </c>
-      <c r="S3" t="n">
+      <c r="AH3" t="n">
         <v>8.437054032242571</v>
       </c>
-      <c r="T3" t="n">
+      <c r="AI3" t="n">
         <v>20.45537515869835</v>
       </c>
-      <c r="U3" t="n">
+      <c r="AJ3" t="n">
         <v>11.96919696850517</v>
       </c>
-      <c r="V3" t="n">
+      <c r="AK3" t="n">
         <v>2.539693843558102</v>
       </c>
-      <c r="W3" t="n">
+      <c r="AL3" t="n">
         <v>0.430709057390338</v>
       </c>
-      <c r="X3" t="n">
+      <c r="AM3" t="n">
         <v>1.057049043439588</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="AN3" t="n">
         <v>0.1693416958114811</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AO3" t="n">
         <v>0.7780413952150889</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AP3" t="n">
         <v>0.2806162979650605</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AQ3" t="n">
         <v>0.3846339092303778</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AR3" t="n">
         <v>0.2978897296251436</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AS3" t="n">
         <v>0.2987020286909527</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AT3" t="n">
         <v>0.3845563705626753</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AU3" t="n">
         <v>3.928137793047599</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AV3" t="n">
         <v>3.106920877465881</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AW3" t="n">
         <v>1.778006753966001</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AX3" t="n">
         <v>3.659502708355269</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AY3" t="n">
         <v>6.252945013133849</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AZ3" t="n">
         <v>2.645840412244257</v>
       </c>
     </row>
@@ -857,105 +1022,150 @@
         <v>0.4898979485566356</v>
       </c>
       <c r="D4" t="n">
+        <v>27.01223129205205</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.1786796510183508</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
+        <v>27.80267493146282</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.9880328056537453</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
+        <v>19.67664625949158</v>
+      </c>
+      <c r="I4" t="n">
         <v>0.605600965874453</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
+        <v>20.38047996174022</v>
+      </c>
+      <c r="K4" t="n">
         <v>0.3791060368160072</v>
       </c>
-      <c r="H4" t="n">
+      <c r="L4" t="n">
+        <v>25.15733326936598</v>
+      </c>
+      <c r="M4" t="n">
         <v>1.505313665591704</v>
       </c>
-      <c r="I4" t="n">
+      <c r="N4" t="n">
+        <v>26.30722152930219</v>
+      </c>
+      <c r="O4" t="n">
         <v>1.00698741764727</v>
       </c>
-      <c r="J4" t="n">
+      <c r="P4" t="n">
+        <v>26.37725009948008</v>
+      </c>
+      <c r="Q4" t="n">
         <v>1.410849784586848</v>
       </c>
-      <c r="K4" t="n">
+      <c r="R4" t="n">
+        <v>27.61790162751127</v>
+      </c>
+      <c r="S4" t="n">
         <v>3.244032730520476</v>
       </c>
-      <c r="L4" t="n">
+      <c r="T4" t="n">
+        <v>27.65892322356666</v>
+      </c>
+      <c r="U4" t="n">
         <v>2.751448705079915</v>
       </c>
-      <c r="M4" t="n">
+      <c r="V4" t="n">
+        <v>29.37475524128769</v>
+      </c>
+      <c r="W4" t="n">
         <v>2.49724176358079</v>
       </c>
-      <c r="N4" t="n">
+      <c r="X4" t="n">
+        <v>30.23741627368092</v>
+      </c>
+      <c r="Y4" t="n">
         <v>0.6131456711941414</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Z4" t="n">
+        <v>31.72933478497329</v>
+      </c>
+      <c r="AA4" t="n">
         <v>1.692166260337538</v>
       </c>
-      <c r="P4" t="n">
+      <c r="AB4" t="n">
+        <v>27.45190239972086</v>
+      </c>
+      <c r="AC4" t="n">
         <v>5.896650861148427</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="AD4" t="n">
+        <v>24.89691948069592</v>
+      </c>
+      <c r="AE4" t="n">
         <v>6.750968832075503</v>
       </c>
-      <c r="R4" t="n">
+      <c r="AF4" t="n">
+        <v>23.5639673231812</v>
+      </c>
+      <c r="AG4" t="n">
         <v>12.79262300673273</v>
       </c>
-      <c r="S4" t="n">
+      <c r="AH4" t="n">
         <v>5.590862479216701</v>
       </c>
-      <c r="T4" t="n">
+      <c r="AI4" t="n">
         <v>20.2793770891505</v>
       </c>
-      <c r="U4" t="n">
+      <c r="AJ4" t="n">
         <v>20.62511002599004</v>
       </c>
-      <c r="V4" t="n">
+      <c r="AK4" t="n">
         <v>2.27396957845571</v>
       </c>
-      <c r="W4" t="n">
+      <c r="AL4" t="n">
         <v>0.2503853691359521</v>
       </c>
-      <c r="X4" t="n">
+      <c r="AM4" t="n">
         <v>1.577779176681897</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="AN4" t="n">
         <v>0.1582425759981573</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AO4" t="n">
         <v>0.7940380240502408</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AP4" t="n">
         <v>0.09760677056424813</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AQ4" t="n">
         <v>0.6015190125772794</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AR4" t="n">
         <v>0.2904808710594697</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AS4" t="n">
         <v>0.5481379831427232</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AT4" t="n">
         <v>0.1812400950884086</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AU4" t="n">
         <v>3.729125718313497</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AV4" t="n">
         <v>1.003792611700797</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AW4" t="n">
         <v>3.976486134459717</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AX4" t="n">
         <v>1.634028646491556</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AY4" t="n">
         <v>3.986216863840589</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AZ4" t="n">
         <v>2.636578077464951</v>
       </c>
     </row>
@@ -970,105 +1180,150 @@
         <v>0.4898979485566356</v>
       </c>
       <c r="D5" t="n">
+        <v>23.82187222937784</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.3437907925971198</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
+        <v>27.69138772564056</v>
+      </c>
+      <c r="G5" t="n">
         <v>1.263695197229374</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
+        <v>19.14712690327823</v>
+      </c>
+      <c r="I5" t="n">
         <v>0.3688498730620001</v>
       </c>
-      <c r="G5" t="n">
+      <c r="J5" t="n">
+        <v>19.80739395407118</v>
+      </c>
+      <c r="K5" t="n">
         <v>0.5627365221375802</v>
       </c>
-      <c r="H5" t="n">
+      <c r="L5" t="n">
+        <v>24.79573538052314</v>
+      </c>
+      <c r="M5" t="n">
         <v>1.477516716632656</v>
       </c>
-      <c r="I5" t="n">
+      <c r="N5" t="n">
+        <v>26.23736788338545</v>
+      </c>
+      <c r="O5" t="n">
         <v>1.218740193898767</v>
       </c>
-      <c r="J5" t="n">
+      <c r="P5" t="n">
+        <v>26.24874886806352</v>
+      </c>
+      <c r="Q5" t="n">
         <v>1.641818616082636</v>
       </c>
-      <c r="K5" t="n">
+      <c r="R5" t="n">
+        <v>28.22179330352512</v>
+      </c>
+      <c r="S5" t="n">
         <v>3.342144709599632</v>
       </c>
-      <c r="L5" t="n">
+      <c r="T5" t="n">
+        <v>28.40952036482287</v>
+      </c>
+      <c r="U5" t="n">
         <v>2.907959769590532</v>
       </c>
-      <c r="M5" t="n">
+      <c r="V5" t="n">
+        <v>30.69839905029274</v>
+      </c>
+      <c r="W5" t="n">
         <v>2.467893294585019</v>
       </c>
-      <c r="N5" t="n">
+      <c r="X5" t="n">
+        <v>33.11353797721414</v>
+      </c>
+      <c r="Y5" t="n">
         <v>1.481271405005196</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Z5" t="n">
+        <v>35.44157131607803</v>
+      </c>
+      <c r="AA5" t="n">
         <v>1.377460739117859</v>
       </c>
-      <c r="P5" t="n">
+      <c r="AB5" t="n">
+        <v>27.46804160287649</v>
+      </c>
+      <c r="AC5" t="n">
         <v>5.993440092382385</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="AD5" t="n">
+        <v>25.33175697365953</v>
+      </c>
+      <c r="AE5" t="n">
         <v>7.050076902981806</v>
       </c>
-      <c r="R5" t="n">
+      <c r="AF5" t="n">
+        <v>20.44143543010729</v>
+      </c>
+      <c r="AG5" t="n">
         <v>11.24168879688089</v>
       </c>
-      <c r="S5" t="n">
+      <c r="AH5" t="n">
         <v>8.242188274352042</v>
       </c>
-      <c r="T5" t="n">
+      <c r="AI5" t="n">
         <v>19.31590103000784</v>
       </c>
-      <c r="U5" t="n">
+      <c r="AJ5" t="n">
         <v>24.00819425552168</v>
       </c>
-      <c r="V5" t="n">
+      <c r="AK5" t="n">
         <v>1.871955829788521</v>
       </c>
-      <c r="W5" t="n">
+      <c r="AL5" t="n">
         <v>0.5124209270895312</v>
       </c>
-      <c r="X5" t="n">
+      <c r="AM5" t="n">
         <v>1.389829439403528</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="AN5" t="n">
         <v>0.4330914642535421</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AO5" t="n">
         <v>0.7356611843738613</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AP5" t="n">
         <v>0.2382277776802406</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AQ5" t="n">
         <v>0.5708642472214041</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AR5" t="n">
         <v>0.2288737261699935</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AS5" t="n">
         <v>0.470779185832977</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AT5" t="n">
         <v>0.2582550614490005</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AU5" t="n">
         <v>3.182964203150797</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AV5" t="n">
         <v>1.01286781451225</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AW5" t="n">
         <v>3.630574763327396</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AX5" t="n">
         <v>1.975595657343338</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AY5" t="n">
         <v>1.59173605141051</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AZ5" t="n">
         <v>1.000851437075718</v>
       </c>
     </row>
@@ -1083,105 +1338,150 @@
         <v>0.4898979485566356</v>
       </c>
       <c r="D6" t="n">
+        <v>23.72676635344591</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.7009337658387934</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
+        <v>27.61393230156732</v>
+      </c>
+      <c r="G6" t="n">
         <v>1.68745745801798</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
+        <v>18.98550642183244</v>
+      </c>
+      <c r="I6" t="n">
         <v>0.4615310372648075</v>
       </c>
-      <c r="G6" t="n">
+      <c r="J6" t="n">
+        <v>20.13872155085616</v>
+      </c>
+      <c r="K6" t="n">
         <v>1.049052380011903</v>
       </c>
-      <c r="H6" t="n">
+      <c r="L6" t="n">
+        <v>25.05227704593097</v>
+      </c>
+      <c r="M6" t="n">
         <v>1.813935411925099</v>
       </c>
-      <c r="I6" t="n">
+      <c r="N6" t="n">
+        <v>26.37186122527931</v>
+      </c>
+      <c r="O6" t="n">
         <v>1.551947900804996</v>
       </c>
-      <c r="J6" t="n">
+      <c r="P6" t="n">
+        <v>26.56291483999706</v>
+      </c>
+      <c r="Q6" t="n">
         <v>1.889161449716287</v>
       </c>
-      <c r="K6" t="n">
+      <c r="R6" t="n">
+        <v>28.83586138471814</v>
+      </c>
+      <c r="S6" t="n">
         <v>3.216488159188492</v>
       </c>
-      <c r="L6" t="n">
+      <c r="T6" t="n">
+        <v>29.22125872202677</v>
+      </c>
+      <c r="U6" t="n">
         <v>3.005657260647361</v>
       </c>
-      <c r="M6" t="n">
+      <c r="V6" t="n">
+        <v>32.00333300935091</v>
+      </c>
+      <c r="W6" t="n">
         <v>2.527590979494592</v>
       </c>
-      <c r="N6" t="n">
+      <c r="X6" t="n">
+        <v>35.27683704735146</v>
+      </c>
+      <c r="Y6" t="n">
         <v>2.487981678987482</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Z6" t="n">
+        <v>38.08074934220859</v>
+      </c>
+      <c r="AA6" t="n">
         <v>0.6118050270370499</v>
       </c>
-      <c r="P6" t="n">
+      <c r="AB6" t="n">
+        <v>27.54035858668303</v>
+      </c>
+      <c r="AC6" t="n">
         <v>5.938357994353464</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="AD6" t="n">
+        <v>25.75851517989295</v>
+      </c>
+      <c r="AE6" t="n">
         <v>7.346748087610812</v>
       </c>
-      <c r="R6" t="n">
+      <c r="AF6" t="n">
+        <v>32.49222297439035</v>
+      </c>
+      <c r="AG6" t="n">
         <v>10.67374427344588</v>
       </c>
-      <c r="S6" t="n">
+      <c r="AH6" t="n">
         <v>10.29977297131618</v>
       </c>
-      <c r="T6" t="n">
+      <c r="AI6" t="n">
         <v>14.8854986954693</v>
       </c>
-      <c r="U6" t="n">
+      <c r="AJ6" t="n">
         <v>24.61679788419055</v>
       </c>
-      <c r="V6" t="n">
+      <c r="AK6" t="n">
         <v>1.377686175879419</v>
       </c>
-      <c r="W6" t="n">
+      <c r="AL6" t="n">
         <v>0.6153490608970608</v>
       </c>
-      <c r="X6" t="n">
+      <c r="AM6" t="n">
         <v>0.8935234664720216</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="AN6" t="n">
         <v>0.6011232125098809</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AO6" t="n">
         <v>0.560016481588167</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AP6" t="n">
         <v>0.3454732264878598</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AQ6" t="n">
         <v>0.3058058511155269</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AR6" t="n">
         <v>0.2879794261979741</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AS6" t="n">
         <v>0.2312527969594131</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AT6" t="n">
         <v>0.2644568186263743</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AU6" t="n">
         <v>2.088648046480804</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AV6" t="n">
         <v>1.568844133030772</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AW6" t="n">
         <v>3.090129260753609</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AX6" t="n">
         <v>1.126020068988611</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AY6" t="n">
         <v>0.725005283231119</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AZ6" t="n">
         <v>0.8504766348998417</v>
       </c>
     </row>
@@ -1196,105 +1496,150 @@
         <v>0.4898979485566356</v>
       </c>
       <c r="D7" t="n">
+        <v>23.67211343378325</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.5600906264101916</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
+        <v>27.85981995551246</v>
+      </c>
+      <c r="G7" t="n">
         <v>1.487793860002512</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
+        <v>19.75879332638089</v>
+      </c>
+      <c r="I7" t="n">
         <v>0.7403914282308284</v>
       </c>
-      <c r="G7" t="n">
+      <c r="J7" t="n">
+        <v>22.10409601532664</v>
+      </c>
+      <c r="K7" t="n">
         <v>1.499314302648247</v>
       </c>
-      <c r="H7" t="n">
+      <c r="L7" t="n">
+        <v>25.65673423753299</v>
+      </c>
+      <c r="M7" t="n">
         <v>1.655235341634574</v>
       </c>
-      <c r="I7" t="n">
+      <c r="N7" t="n">
+        <v>26.91379002086951</v>
+      </c>
+      <c r="O7" t="n">
         <v>1.290371004735809</v>
       </c>
-      <c r="J7" t="n">
+      <c r="P7" t="n">
+        <v>27.08969052211915</v>
+      </c>
+      <c r="Q7" t="n">
         <v>1.667377303660002</v>
       </c>
-      <c r="K7" t="n">
+      <c r="R7" t="n">
+        <v>28.71256170964523</v>
+      </c>
+      <c r="S7" t="n">
         <v>3.364527040704285</v>
       </c>
-      <c r="L7" t="n">
+      <c r="T7" t="n">
+        <v>29.25425249723706</v>
+      </c>
+      <c r="U7" t="n">
         <v>3.181118635895096</v>
       </c>
-      <c r="M7" t="n">
+      <c r="V7" t="n">
+        <v>32.16260920741314</v>
+      </c>
+      <c r="W7" t="n">
         <v>2.646220855910526</v>
       </c>
-      <c r="N7" t="n">
+      <c r="X7" t="n">
+        <v>35.4428242816427</v>
+      </c>
+      <c r="Y7" t="n">
         <v>3.195475206102767</v>
       </c>
-      <c r="O7" t="n">
+      <c r="Z7" t="n">
+        <v>38.72867268680968</v>
+      </c>
+      <c r="AA7" t="n">
         <v>0.4911882552487098</v>
       </c>
-      <c r="P7" t="n">
+      <c r="AB7" t="n">
+        <v>27.60475514151227</v>
+      </c>
+      <c r="AC7" t="n">
         <v>6.137358066620132</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="AD7" t="n">
+        <v>26.41445231642876</v>
+      </c>
+      <c r="AE7" t="n">
         <v>7.464230346783448</v>
       </c>
-      <c r="R7" t="n">
+      <c r="AF7" t="n">
+        <v>23.61067504434571</v>
+      </c>
+      <c r="AG7" t="n">
         <v>11.64072162508895</v>
       </c>
-      <c r="S7" t="n">
+      <c r="AH7" t="n">
         <v>11.04457138904571</v>
       </c>
-      <c r="T7" t="n">
+      <c r="AI7" t="n">
         <v>12.7980979119554</v>
       </c>
-      <c r="U7" t="n">
+      <c r="AJ7" t="n">
         <v>23.4890025650727</v>
       </c>
-      <c r="V7" t="n">
+      <c r="AK7" t="n">
         <v>0.5491542743402243</v>
       </c>
-      <c r="W7" t="n">
+      <c r="AL7" t="n">
         <v>0.5282001154468595</v>
       </c>
-      <c r="X7" t="n">
+      <c r="AM7" t="n">
         <v>0.3926246839040122</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="AN7" t="n">
         <v>0.3780439098898868</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AO7" t="n">
         <v>0.268888030130644</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AP7" t="n">
         <v>0.2048738659911504</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AQ7" t="n">
         <v>0.1790712480570091</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AR7" t="n">
         <v>0.09750514570872959</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AS7" t="n">
         <v>0.1952794027478643</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AT7" t="n">
         <v>0.05000803015868482</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AU7" t="n">
         <v>1.541957901411275</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AV7" t="n">
         <v>1.225652974161115</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AW7" t="n">
         <v>2.121426878033387</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AX7" t="n">
         <v>0.7643698630310806</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AY7" t="n">
         <v>1.912291486555989</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AZ7" t="n">
         <v>1.167641661395963</v>
       </c>
     </row>
@@ -1309,105 +1654,150 @@
         <v>0.4898979485566356</v>
       </c>
       <c r="D8" t="n">
+        <v>23.30508906700938</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.7638559355930815</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
+        <v>28.09560339346696</v>
+      </c>
+      <c r="G8" t="n">
         <v>1.294163249386136</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
+        <v>22.85446126240658</v>
+      </c>
+      <c r="I8" t="n">
         <v>1.569029384117946</v>
       </c>
-      <c r="G8" t="n">
+      <c r="J8" t="n">
+        <v>25.3617555959421</v>
+      </c>
+      <c r="K8" t="n">
         <v>1.94549251525349</v>
       </c>
-      <c r="H8" t="n">
+      <c r="L8" t="n">
+        <v>26.6549428538498</v>
+      </c>
+      <c r="M8" t="n">
         <v>1.7242268004789</v>
       </c>
-      <c r="I8" t="n">
+      <c r="N8" t="n">
+        <v>27.84918372462927</v>
+      </c>
+      <c r="O8" t="n">
         <v>1.230716218588813</v>
       </c>
-      <c r="J8" t="n">
+      <c r="P8" t="n">
+        <v>27.86494678053734</v>
+      </c>
+      <c r="Q8" t="n">
         <v>1.582226371608025</v>
       </c>
-      <c r="K8" t="n">
+      <c r="R8" t="n">
+        <v>28.60720685493618</v>
+      </c>
+      <c r="S8" t="n">
         <v>3.172932276468401</v>
       </c>
-      <c r="L8" t="n">
+      <c r="T8" t="n">
+        <v>29.12484242974566</v>
+      </c>
+      <c r="U8" t="n">
         <v>3.080351937803345</v>
       </c>
-      <c r="M8" t="n">
+      <c r="V8" t="n">
+        <v>31.77642439019213</v>
+      </c>
+      <c r="W8" t="n">
         <v>2.11873479300112</v>
       </c>
-      <c r="N8" t="n">
+      <c r="X8" t="n">
+        <v>34.75707200169017</v>
+      </c>
+      <c r="Y8" t="n">
         <v>3.854949615710261</v>
       </c>
-      <c r="O8" t="n">
+      <c r="Z8" t="n">
+        <v>38.19993556067513</v>
+      </c>
+      <c r="AA8" t="n">
         <v>0.993017629766406</v>
       </c>
-      <c r="P8" t="n">
+      <c r="AB8" t="n">
+        <v>27.73308511974653</v>
+      </c>
+      <c r="AC8" t="n">
         <v>5.7117541803261</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="AD8" t="n">
+        <v>26.75738075015829</v>
+      </c>
+      <c r="AE8" t="n">
         <v>7.198097501724346</v>
       </c>
-      <c r="R8" t="n">
+      <c r="AF8" t="n">
+        <v>21.71145493511245</v>
+      </c>
+      <c r="AG8" t="n">
         <v>8.54758713798625</v>
       </c>
-      <c r="S8" t="n">
+      <c r="AH8" t="n">
         <v>11.45330893982969</v>
       </c>
-      <c r="T8" t="n">
+      <c r="AI8" t="n">
         <v>12.34931416651016</v>
       </c>
-      <c r="U8" t="n">
+      <c r="AJ8" t="n">
         <v>21.32313274799812</v>
       </c>
-      <c r="V8" t="n">
+      <c r="AK8" t="n">
         <v>0.7735481417375593</v>
       </c>
-      <c r="W8" t="n">
+      <c r="AL8" t="n">
         <v>0.3000719807041282</v>
       </c>
-      <c r="X8" t="n">
+      <c r="AM8" t="n">
         <v>0.6615210370621251</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AN8" t="n">
         <v>0.1775440998373159</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AO8" t="n">
         <v>0.2294843801962148</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AP8" t="n">
         <v>0.2303301748738407</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AQ8" t="n">
         <v>0.138209103787493</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AR8" t="n">
         <v>0.0567558778915607</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AS8" t="n">
         <v>0.1692876414666048</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AT8" t="n">
         <v>0.1107149786307005</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AU8" t="n">
         <v>1.536826012657784</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AV8" t="n">
         <v>1.551564232538464</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AW8" t="n">
         <v>2.094763019779533</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AX8" t="n">
         <v>1.530454407342754</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AY8" t="n">
         <v>1.826482281314506</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AZ8" t="n">
         <v>1.357613227970798</v>
       </c>
     </row>
@@ -1422,105 +1812,150 @@
         <v>0.4898979485566356</v>
       </c>
       <c r="D9" t="n">
+        <v>21.70589118120608</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.9154182505571541</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
+        <v>28.56311312158288</v>
+      </c>
+      <c r="G9" t="n">
         <v>1.330614576018433</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
+        <v>26.13316414326837</v>
+      </c>
+      <c r="I9" t="n">
         <v>1.878702037302309</v>
       </c>
-      <c r="G9" t="n">
+      <c r="J9" t="n">
+        <v>28.80418573209923</v>
+      </c>
+      <c r="K9" t="n">
         <v>2.229247156486364</v>
       </c>
-      <c r="H9" t="n">
+      <c r="L9" t="n">
+        <v>27.795699174605</v>
+      </c>
+      <c r="M9" t="n">
         <v>1.825081646721585</v>
       </c>
-      <c r="I9" t="n">
+      <c r="N9" t="n">
+        <v>28.6939714550908</v>
+      </c>
+      <c r="O9" t="n">
         <v>1.400074103898782</v>
       </c>
-      <c r="J9" t="n">
+      <c r="P9" t="n">
+        <v>28.63142117464258</v>
+      </c>
+      <c r="Q9" t="n">
         <v>1.667013812096382</v>
       </c>
-      <c r="K9" t="n">
+      <c r="R9" t="n">
+        <v>28.68994436431156</v>
+      </c>
+      <c r="S9" t="n">
         <v>3.362033819799959</v>
       </c>
-      <c r="L9" t="n">
+      <c r="T9" t="n">
+        <v>29.27280054133295</v>
+      </c>
+      <c r="U9" t="n">
         <v>3.258525317258686</v>
       </c>
-      <c r="M9" t="n">
+      <c r="V9" t="n">
+        <v>31.91720661603729</v>
+      </c>
+      <c r="W9" t="n">
         <v>2.043999113654873</v>
       </c>
-      <c r="N9" t="n">
+      <c r="X9" t="n">
+        <v>34.19043799326094</v>
+      </c>
+      <c r="Y9" t="n">
         <v>4.121945991806222</v>
       </c>
-      <c r="O9" t="n">
+      <c r="Z9" t="n">
+        <v>37.56394259766301</v>
+      </c>
+      <c r="AA9" t="n">
         <v>0.6699813529536248</v>
       </c>
-      <c r="P9" t="n">
+      <c r="AB9" t="n">
+        <v>27.93399255778701</v>
+      </c>
+      <c r="AC9" t="n">
         <v>5.845835303308666</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="AD9" t="n">
+        <v>26.82940481536381</v>
+      </c>
+      <c r="AE9" t="n">
         <v>6.734111128503341</v>
       </c>
-      <c r="R9" t="n">
+      <c r="AF9" t="n">
+        <v>22.31296493465476</v>
+      </c>
+      <c r="AG9" t="n">
         <v>7.870520108023341</v>
       </c>
-      <c r="S9" t="n">
+      <c r="AH9" t="n">
         <v>10.03649316343338</v>
       </c>
-      <c r="T9" t="n">
+      <c r="AI9" t="n">
         <v>10.76941821547748</v>
       </c>
-      <c r="U9" t="n">
+      <c r="AJ9" t="n">
         <v>19.47581864275087</v>
       </c>
-      <c r="V9" t="n">
+      <c r="AK9" t="n">
         <v>0.9034693419907208</v>
       </c>
-      <c r="W9" t="n">
+      <c r="AL9" t="n">
         <v>0.2143869071398264</v>
       </c>
-      <c r="X9" t="n">
+      <c r="AM9" t="n">
         <v>0.6716233409185908</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AN9" t="n">
         <v>0.1970275761528889</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AO9" t="n">
         <v>0.2598511927726525</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AP9" t="n">
         <v>0.07785613004297243</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AQ9" t="n">
         <v>0.1007965386248391</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AR9" t="n">
         <v>0.1149889048253623</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AS9" t="n">
         <v>0.1685019815317658</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AT9" t="n">
         <v>0.09971584931655544</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AU9" t="n">
         <v>1.993696946339386</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AV9" t="n">
         <v>1.004120824334579</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AW9" t="n">
         <v>1.620051927347271</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AX9" t="n">
         <v>1.991464368477463</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AY9" t="n">
         <v>1.117969292169661</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AZ9" t="n">
         <v>0.9157200391826306</v>
       </c>
     </row>
@@ -1535,105 +1970,150 @@
         <v>0.4898979485566356</v>
       </c>
       <c r="D10" t="n">
+        <v>22.03510778351528</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.9922173678529642</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
+        <v>28.85631524491473</v>
+      </c>
+      <c r="G10" t="n">
         <v>1.272835523188559</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
+        <v>30.33313183761307</v>
+      </c>
+      <c r="I10" t="n">
         <v>2.184470756612828</v>
       </c>
-      <c r="G10" t="n">
+      <c r="J10" t="n">
+        <v>31.14683793081185</v>
+      </c>
+      <c r="K10" t="n">
         <v>2.10271301425773</v>
       </c>
-      <c r="H10" t="n">
+      <c r="L10" t="n">
+        <v>28.9018829970863</v>
+      </c>
+      <c r="M10" t="n">
         <v>1.986115772405611</v>
       </c>
-      <c r="I10" t="n">
+      <c r="N10" t="n">
+        <v>29.44799465318215</v>
+      </c>
+      <c r="O10" t="n">
         <v>1.427303869941998</v>
       </c>
-      <c r="J10" t="n">
+      <c r="P10" t="n">
+        <v>29.23913994266015</v>
+      </c>
+      <c r="Q10" t="n">
         <v>1.698164418911439</v>
       </c>
-      <c r="K10" t="n">
+      <c r="R10" t="n">
+        <v>28.75778827940457</v>
+      </c>
+      <c r="S10" t="n">
         <v>3.188975648385977</v>
       </c>
-      <c r="L10" t="n">
+      <c r="T10" t="n">
+        <v>29.33231313784254</v>
+      </c>
+      <c r="U10" t="n">
         <v>3.117810264102793</v>
       </c>
-      <c r="M10" t="n">
+      <c r="V10" t="n">
+        <v>32.05555134531843</v>
+      </c>
+      <c r="W10" t="n">
         <v>1.754224262861289</v>
       </c>
-      <c r="N10" t="n">
+      <c r="X10" t="n">
+        <v>33.61738359484171</v>
+      </c>
+      <c r="Y10" t="n">
         <v>3.989430528947458</v>
       </c>
-      <c r="O10" t="n">
+      <c r="Z10" t="n">
+        <v>36.64550365139205</v>
+      </c>
+      <c r="AA10" t="n">
         <v>0.7056005568131278</v>
       </c>
-      <c r="P10" t="n">
+      <c r="AB10" t="n">
+        <v>28.2091020354501</v>
+      </c>
+      <c r="AC10" t="n">
         <v>5.643096386099151</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="AD10" t="n">
+        <v>27.24802168919854</v>
+      </c>
+      <c r="AE10" t="n">
         <v>5.936034761019548</v>
       </c>
-      <c r="R10" t="n">
+      <c r="AF10" t="n">
+        <v>22.93794389160953</v>
+      </c>
+      <c r="AG10" t="n">
         <v>6.867516526453067</v>
       </c>
-      <c r="S10" t="n">
+      <c r="AH10" t="n">
         <v>10.13691830107211</v>
       </c>
-      <c r="T10" t="n">
+      <c r="AI10" t="n">
         <v>9.940006689920924</v>
       </c>
-      <c r="U10" t="n">
+      <c r="AJ10" t="n">
         <v>19.82943213156801</v>
       </c>
-      <c r="V10" t="n">
+      <c r="AK10" t="n">
         <v>0.8040785525002035</v>
       </c>
-      <c r="W10" t="n">
+      <c r="AL10" t="n">
         <v>0.2044123838966528</v>
       </c>
-      <c r="X10" t="n">
+      <c r="AM10" t="n">
         <v>0.6772817752231722</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="AN10" t="n">
         <v>0.2933091577578586</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AO10" t="n">
         <v>0.2937092981420352</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AP10" t="n">
         <v>0.3419947182874763</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AQ10" t="n">
         <v>0.239537961652407</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AR10" t="n">
         <v>0.1160140583538541</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AS10" t="n">
         <v>0.2148240638966536</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AT10" t="n">
         <v>0.1007472766981182</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AU10" t="n">
         <v>1.627817029227497</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AV10" t="n">
         <v>1.490670389264952</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AW10" t="n">
         <v>2.310781112250433</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AX10" t="n">
         <v>0.6325036985444304</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AY10" t="n">
         <v>1.183176172476031</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AZ10" t="n">
         <v>0.8631592643792254</v>
       </c>
     </row>
@@ -1648,105 +2128,150 @@
         <v>0.4898979485566356</v>
       </c>
       <c r="D11" t="n">
+        <v>23.66234993092954</v>
+      </c>
+      <c r="E11" t="n">
         <v>1.097035534168737</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
+        <v>29.11866687368967</v>
+      </c>
+      <c r="G11" t="n">
         <v>1.136744843142977</v>
       </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
+        <v>32.82762638620954</v>
+      </c>
+      <c r="I11" t="n">
         <v>1.724671665090121</v>
       </c>
-      <c r="G11" t="n">
+      <c r="J11" t="n">
+        <v>32.57079141845844</v>
+      </c>
+      <c r="K11" t="n">
         <v>1.732077013743473</v>
       </c>
-      <c r="H11" t="n">
+      <c r="L11" t="n">
+        <v>29.48451030220939</v>
+      </c>
+      <c r="M11" t="n">
         <v>1.608750512518328</v>
       </c>
-      <c r="I11" t="n">
+      <c r="N11" t="n">
+        <v>30.01145854313105</v>
+      </c>
+      <c r="O11" t="n">
         <v>1.157685051768155</v>
       </c>
-      <c r="J11" t="n">
+      <c r="P11" t="n">
+        <v>29.76219457362227</v>
+      </c>
+      <c r="Q11" t="n">
         <v>1.565600314712089</v>
       </c>
-      <c r="K11" t="n">
+      <c r="R11" t="n">
+        <v>28.9087018492474</v>
+      </c>
+      <c r="S11" t="n">
         <v>3.111436742277115</v>
       </c>
-      <c r="L11" t="n">
+      <c r="T11" t="n">
+        <v>29.44107263910784</v>
+      </c>
+      <c r="U11" t="n">
         <v>3.091502389036666</v>
       </c>
-      <c r="M11" t="n">
+      <c r="V11" t="n">
+        <v>31.84494872091591</v>
+      </c>
+      <c r="W11" t="n">
         <v>1.388939885054595</v>
       </c>
-      <c r="N11" t="n">
+      <c r="X11" t="n">
+        <v>32.99140359155726</v>
+      </c>
+      <c r="Y11" t="n">
         <v>3.641685938177793</v>
       </c>
-      <c r="O11" t="n">
+      <c r="Z11" t="n">
+        <v>36.09536597816452</v>
+      </c>
+      <c r="AA11" t="n">
         <v>1.081095498461683</v>
       </c>
-      <c r="P11" t="n">
+      <c r="AB11" t="n">
+        <v>28.590031234493</v>
+      </c>
+      <c r="AC11" t="n">
         <v>5.489073844487198</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="AD11" t="n">
+        <v>27.78380421119587</v>
+      </c>
+      <c r="AE11" t="n">
         <v>5.474437501559984</v>
       </c>
-      <c r="R11" t="n">
+      <c r="AF11" t="n">
+        <v>23.50577636554494</v>
+      </c>
+      <c r="AG11" t="n">
         <v>6.692635366121033</v>
       </c>
-      <c r="S11" t="n">
+      <c r="AH11" t="n">
         <v>9.923556373597958</v>
       </c>
-      <c r="T11" t="n">
+      <c r="AI11" t="n">
         <v>10.81419750334433</v>
       </c>
-      <c r="U11" t="n">
+      <c r="AJ11" t="n">
         <v>18.84328764835778</v>
       </c>
-      <c r="V11" t="n">
+      <c r="AK11" t="n">
         <v>0.7985261695132365</v>
       </c>
-      <c r="W11" t="n">
+      <c r="AL11" t="n">
         <v>0.3306078492337497</v>
       </c>
-      <c r="X11" t="n">
+      <c r="AM11" t="n">
         <v>0.9588711995700053</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="AN11" t="n">
         <v>0.418019377410952</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AO11" t="n">
         <v>0.6480919323834543</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AP11" t="n">
         <v>0.5496729501615475</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AQ11" t="n">
         <v>0.2764449671270578</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AR11" t="n">
         <v>0.1896784116105141</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AS11" t="n">
         <v>0.2375837606962953</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AT11" t="n">
         <v>0.1018204714637663</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AU11" t="n">
         <v>2.709593751141557</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AV11" t="n">
         <v>0.7395059078903162</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AW11" t="n">
         <v>1.066737562725497</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AX11" t="n">
         <v>2.005350457766003</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AY11" t="n">
         <v>2.172170941013864</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AZ11" t="n">
         <v>2.202889358003551</v>
       </c>
     </row>
@@ -1761,105 +2286,150 @@
         <v>0.4898979485566356</v>
       </c>
       <c r="D12" t="n">
+        <v>23.69408818182587</v>
+      </c>
+      <c r="E12" t="n">
         <v>1.229152861554035</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
+        <v>29.24385107991228</v>
+      </c>
+      <c r="G12" t="n">
         <v>1.149967714061547</v>
       </c>
-      <c r="F12" t="n">
+      <c r="H12" t="n">
+        <v>34.00780197375349</v>
+      </c>
+      <c r="I12" t="n">
         <v>1.823641000139363</v>
       </c>
-      <c r="G12" t="n">
+      <c r="J12" t="n">
+        <v>33.83988764990963</v>
+      </c>
+      <c r="K12" t="n">
         <v>1.688073777261041</v>
       </c>
-      <c r="H12" t="n">
+      <c r="L12" t="n">
+        <v>30.11278388908187</v>
+      </c>
+      <c r="M12" t="n">
         <v>1.662941219617004</v>
       </c>
-      <c r="I12" t="n">
+      <c r="N12" t="n">
+        <v>30.30978932388532</v>
+      </c>
+      <c r="O12" t="n">
         <v>1.169560891382862</v>
       </c>
-      <c r="J12" t="n">
+      <c r="P12" t="n">
+        <v>29.98204803204613</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1.486968030621228</v>
       </c>
-      <c r="K12" t="n">
+      <c r="R12" t="n">
+        <v>28.75448805620356</v>
+      </c>
+      <c r="S12" t="n">
         <v>3.145349754516099</v>
       </c>
-      <c r="L12" t="n">
+      <c r="T12" t="n">
+        <v>29.16121984101012</v>
+      </c>
+      <c r="U12" t="n">
         <v>3.042276290190133</v>
       </c>
-      <c r="M12" t="n">
+      <c r="V12" t="n">
+        <v>31.0317191177456</v>
+      </c>
+      <c r="W12" t="n">
         <v>1.345878366740429</v>
       </c>
-      <c r="N12" t="n">
+      <c r="X12" t="n">
+        <v>31.79472762065788</v>
+      </c>
+      <c r="Y12" t="n">
         <v>3.351275064004986</v>
       </c>
-      <c r="O12" t="n">
+      <c r="Z12" t="n">
+        <v>35.13347914493032</v>
+      </c>
+      <c r="AA12" t="n">
         <v>1.171718087343364</v>
       </c>
-      <c r="P12" t="n">
+      <c r="AB12" t="n">
+        <v>28.66795709351778</v>
+      </c>
+      <c r="AC12" t="n">
         <v>5.42317235323357</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="AD12" t="n">
+        <v>27.87986088106981</v>
+      </c>
+      <c r="AE12" t="n">
         <v>4.947096871646476</v>
       </c>
-      <c r="R12" t="n">
+      <c r="AF12" t="n">
+        <v>23.99992306677491</v>
+      </c>
+      <c r="AG12" t="n">
         <v>5.957105830628379</v>
       </c>
-      <c r="S12" t="n">
+      <c r="AH12" t="n">
         <v>10.61192881668378</v>
       </c>
-      <c r="T12" t="n">
+      <c r="AI12" t="n">
         <v>9.664673593866221</v>
       </c>
-      <c r="U12" t="n">
+      <c r="AJ12" t="n">
         <v>15.47816442128026</v>
       </c>
-      <c r="V12" t="n">
+      <c r="AK12" t="n">
         <v>1.358478602383821</v>
       </c>
-      <c r="W12" t="n">
+      <c r="AL12" t="n">
         <v>0.6352940775896656</v>
       </c>
-      <c r="X12" t="n">
+      <c r="AM12" t="n">
         <v>1.387206528361745</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="AN12" t="n">
         <v>0.2591326984303449</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AO12" t="n">
         <v>1.263619567155326</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AP12" t="n">
         <v>0.2780663694972155</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AQ12" t="n">
         <v>0.4812751670240162</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AR12" t="n">
         <v>0.08762940959529328</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AS12" t="n">
         <v>0.2982161607569553</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AT12" t="n">
         <v>0.09945724495676415</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AU12" t="n">
         <v>2.478906692631887</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AV12" t="n">
         <v>1.551987063490065</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AW12" t="n">
         <v>1.796864988822711</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AX12" t="n">
         <v>1.852809248455461</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AY12" t="n">
         <v>4.39857357253941</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AZ12" t="n">
         <v>1.815475887826073</v>
       </c>
     </row>
@@ -1874,105 +2444,150 @@
         <v>0.4898979485566356</v>
       </c>
       <c r="D13" t="n">
+        <v>23.69890297253004</v>
+      </c>
+      <c r="E13" t="n">
         <v>1.176121117082485</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
+        <v>29.13156358122174</v>
+      </c>
+      <c r="G13" t="n">
         <v>1.367218386804818</v>
       </c>
-      <c r="F13" t="n">
+      <c r="H13" t="n">
+        <v>35.02189975704874</v>
+      </c>
+      <c r="I13" t="n">
         <v>1.799692337185364</v>
       </c>
-      <c r="G13" t="n">
+      <c r="J13" t="n">
+        <v>34.73834559812899</v>
+      </c>
+      <c r="K13" t="n">
         <v>1.603173918685944</v>
       </c>
-      <c r="H13" t="n">
+      <c r="L13" t="n">
+        <v>30.46391872735339</v>
+      </c>
+      <c r="M13" t="n">
         <v>1.451297513561848</v>
       </c>
-      <c r="I13" t="n">
+      <c r="N13" t="n">
+        <v>30.69104205313396</v>
+      </c>
+      <c r="O13" t="n">
         <v>1.071395632181514</v>
       </c>
-      <c r="J13" t="n">
+      <c r="P13" t="n">
+        <v>30.16043383956429</v>
+      </c>
+      <c r="Q13" t="n">
         <v>1.342331504489886</v>
       </c>
-      <c r="K13" t="n">
+      <c r="R13" t="n">
+        <v>28.51862165466045</v>
+      </c>
+      <c r="S13" t="n">
         <v>3.320037850870412</v>
       </c>
-      <c r="L13" t="n">
+      <c r="T13" t="n">
+        <v>28.65451717211113</v>
+      </c>
+      <c r="U13" t="n">
         <v>3.199341404759688</v>
       </c>
-      <c r="M13" t="n">
+      <c r="V13" t="n">
+        <v>29.55182585890507</v>
+      </c>
+      <c r="W13" t="n">
         <v>1.64695627274524</v>
       </c>
-      <c r="N13" t="n">
+      <c r="X13" t="n">
+        <v>30.34968330138263</v>
+      </c>
+      <c r="Y13" t="n">
         <v>3.480100045171814</v>
       </c>
-      <c r="O13" t="n">
+      <c r="Z13" t="n">
+        <v>33.47752028561149</v>
+      </c>
+      <c r="AA13" t="n">
         <v>1.496117916182862</v>
       </c>
-      <c r="P13" t="n">
+      <c r="AB13" t="n">
+        <v>28.73449118355218</v>
+      </c>
+      <c r="AC13" t="n">
         <v>5.555924057806501</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="AD13" t="n">
+        <v>28.76223715031594</v>
+      </c>
+      <c r="AE13" t="n">
         <v>4.913678440605894</v>
       </c>
-      <c r="R13" t="n">
+      <c r="AF13" t="n">
+        <v>24.40039364962338</v>
+      </c>
+      <c r="AG13" t="n">
         <v>5.500364406292889</v>
       </c>
-      <c r="S13" t="n">
+      <c r="AH13" t="n">
         <v>12.6008826185515</v>
       </c>
-      <c r="T13" t="n">
+      <c r="AI13" t="n">
         <v>10.86555176446772</v>
       </c>
-      <c r="U13" t="n">
+      <c r="AJ13" t="n">
         <v>10.72863912804207</v>
       </c>
-      <c r="V13" t="n">
+      <c r="AK13" t="n">
         <v>2.038132218301888</v>
       </c>
-      <c r="W13" t="n">
+      <c r="AL13" t="n">
         <v>0.5490740799300118</v>
       </c>
-      <c r="X13" t="n">
+      <c r="AM13" t="n">
         <v>1.461054543472325</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="AN13" t="n">
         <v>0.03206499512751386</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AO13" t="n">
         <v>1.169349655310145</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AP13" t="n">
         <v>0.3293380760895392</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AQ13" t="n">
         <v>0.4003170297954005</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AR13" t="n">
         <v>0.1247407807374775</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AS13" t="n">
         <v>0.3469648384570945</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AT13" t="n">
         <v>0.09110270016986532</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AU13" t="n">
         <v>0.6224832711579832</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AV13" t="n">
         <v>2.466459169589435</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AW13" t="n">
         <v>2.576714929776613</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AX13" t="n">
         <v>1.54840231835019</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AY13" t="n">
         <v>5.762857743198025</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="AZ13" t="n">
         <v>0.6491376185342482</v>
       </c>
     </row>
@@ -1987,105 +2602,150 @@
         <v>0.4898979485566356</v>
       </c>
       <c r="D14" t="n">
+        <v>25.96643289000396</v>
+      </c>
+      <c r="E14" t="n">
         <v>3.103875440256605</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
+        <v>25.32455099506684</v>
+      </c>
+      <c r="G14" t="n">
         <v>1.552413475765402</v>
       </c>
-      <c r="F14" t="n">
+      <c r="H14" t="n">
+        <v>34.79813704320618</v>
+      </c>
+      <c r="I14" t="n">
         <v>1.663955622439969</v>
       </c>
-      <c r="G14" t="n">
+      <c r="J14" t="n">
+        <v>35.60063692934254</v>
+      </c>
+      <c r="K14" t="n">
         <v>1.599989275364127</v>
       </c>
-      <c r="H14" t="n">
+      <c r="L14" t="n">
+        <v>30.86899581156558</v>
+      </c>
+      <c r="M14" t="n">
         <v>1.386546377123727</v>
       </c>
-      <c r="I14" t="n">
+      <c r="N14" t="n">
+        <v>30.64460383547672</v>
+      </c>
+      <c r="O14" t="n">
         <v>1.071693334271164</v>
       </c>
-      <c r="J14" t="n">
+      <c r="P14" t="n">
+        <v>30.28452374832018</v>
+      </c>
+      <c r="Q14" t="n">
         <v>1.341763545983089</v>
       </c>
-      <c r="K14" t="n">
+      <c r="R14" t="n">
+        <v>28.19539759101703</v>
+      </c>
+      <c r="S14" t="n">
         <v>3.439269895245604</v>
       </c>
-      <c r="L14" t="n">
+      <c r="T14" t="n">
+        <v>28.48554818164578</v>
+      </c>
+      <c r="U14" t="n">
         <v>3.283195863470203</v>
       </c>
-      <c r="M14" t="n">
+      <c r="V14" t="n">
+        <v>28.79811141866551</v>
+      </c>
+      <c r="W14" t="n">
         <v>1.920324713502147</v>
       </c>
-      <c r="N14" t="n">
+      <c r="X14" t="n">
+        <v>29.05567174698938</v>
+      </c>
+      <c r="Y14" t="n">
         <v>3.496851000810696</v>
       </c>
-      <c r="O14" t="n">
+      <c r="Z14" t="n">
+        <v>31.22734619375298</v>
+      </c>
+      <c r="AA14" t="n">
         <v>2.070007019229491</v>
       </c>
-      <c r="P14" t="n">
+      <c r="AB14" t="n">
+        <v>28.85526647627078</v>
+      </c>
+      <c r="AC14" t="n">
         <v>5.578996897200296</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="AD14" t="n">
+        <v>27.66223480582501</v>
+      </c>
+      <c r="AE14" t="n">
         <v>4.759488755416298</v>
       </c>
-      <c r="R14" t="n">
+      <c r="AF14" t="n">
+        <v>24.53433413009479</v>
+      </c>
+      <c r="AG14" t="n">
         <v>5.30593708903245</v>
       </c>
-      <c r="S14" t="n">
+      <c r="AH14" t="n">
         <v>11.27943361523426</v>
       </c>
-      <c r="T14" t="n">
+      <c r="AI14" t="n">
         <v>12.44767294756585</v>
       </c>
-      <c r="U14" t="n">
+      <c r="AJ14" t="n">
         <v>8.414626381487031</v>
       </c>
-      <c r="V14" t="n">
+      <c r="AK14" t="n">
         <v>2.464717435929524</v>
       </c>
-      <c r="W14" t="n">
+      <c r="AL14" t="n">
         <v>0.2726731401335335</v>
       </c>
-      <c r="X14" t="n">
+      <c r="AM14" t="n">
         <v>1.409076188189002</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="AN14" t="n">
         <v>0.1090706523518819</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AO14" t="n">
         <v>0.804382544664467</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AP14" t="n">
         <v>0.2030857146808884</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AQ14" t="n">
         <v>0.3277570601690022</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AR14" t="n">
         <v>0.1432733040029908</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AS14" t="n">
         <v>0.281792647549355</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AT14" t="n">
         <v>0.2139958346310917</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AU14" t="n">
         <v>2.547459908895211</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AV14" t="n">
         <v>0.722032211726562</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AW14" t="n">
         <v>1.914755166823621</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AX14" t="n">
         <v>2.56067718975465</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AY14" t="n">
         <v>3.959667907799736</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AZ14" t="n">
         <v>1.251199081190567</v>
       </c>
     </row>
@@ -2100,105 +2760,150 @@
         <v>0.4898979485566356</v>
       </c>
       <c r="D15" t="n">
+        <v>24.36262272510969</v>
+      </c>
+      <c r="E15" t="n">
         <v>3.027627860132479</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
+        <v>25.56093035110693</v>
+      </c>
+      <c r="G15" t="n">
         <v>0.9969971886916297</v>
       </c>
-      <c r="F15" t="n">
+      <c r="H15" t="n">
+        <v>33.61868638789311</v>
+      </c>
+      <c r="I15" t="n">
         <v>1.631521771876665</v>
       </c>
-      <c r="G15" t="n">
+      <c r="J15" t="n">
+        <v>35.4099597198534</v>
+      </c>
+      <c r="K15" t="n">
         <v>1.467444529087387</v>
       </c>
-      <c r="H15" t="n">
+      <c r="L15" t="n">
+        <v>31.03844263968749</v>
+      </c>
+      <c r="M15" t="n">
         <v>1.463118180313207</v>
       </c>
-      <c r="I15" t="n">
+      <c r="N15" t="n">
+        <v>30.78611116882409</v>
+      </c>
+      <c r="O15" t="n">
         <v>1.104694803185212</v>
       </c>
-      <c r="J15" t="n">
+      <c r="P15" t="n">
+        <v>30.39293799128126</v>
+      </c>
+      <c r="Q15" t="n">
         <v>1.359061076605003</v>
       </c>
-      <c r="K15" t="n">
+      <c r="R15" t="n">
+        <v>28.04922328542561</v>
+      </c>
+      <c r="S15" t="n">
         <v>3.274380373781804</v>
       </c>
-      <c r="L15" t="n">
+      <c r="T15" t="n">
+        <v>28.07931660695948</v>
+      </c>
+      <c r="U15" t="n">
         <v>3.062586813837294</v>
       </c>
-      <c r="M15" t="n">
+      <c r="V15" t="n">
+        <v>27.99204636951508</v>
+      </c>
+      <c r="W15" t="n">
         <v>2.126865468104683</v>
       </c>
-      <c r="N15" t="n">
+      <c r="X15" t="n">
+        <v>27.69124459149679</v>
+      </c>
+      <c r="Y15" t="n">
         <v>3.086225208192359</v>
       </c>
-      <c r="O15" t="n">
+      <c r="Z15" t="n">
+        <v>28.77077591663486</v>
+      </c>
+      <c r="AA15" t="n">
         <v>1.970384085820966</v>
       </c>
-      <c r="P15" t="n">
+      <c r="AB15" t="n">
+        <v>29.0156621545062</v>
+      </c>
+      <c r="AC15" t="n">
         <v>5.502519874770005</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="AD15" t="n">
+        <v>27.815013559398</v>
+      </c>
+      <c r="AE15" t="n">
         <v>4.753362055413092</v>
       </c>
-      <c r="R15" t="n">
+      <c r="AF15" t="n">
+        <v>24.64689051459664</v>
+      </c>
+      <c r="AG15" t="n">
         <v>5.401140881172563</v>
       </c>
-      <c r="S15" t="n">
+      <c r="AH15" t="n">
         <v>10.28390736919271</v>
       </c>
-      <c r="T15" t="n">
+      <c r="AI15" t="n">
         <v>12.61606513192649</v>
       </c>
-      <c r="U15" t="n">
+      <c r="AJ15" t="n">
         <v>8.447143602775407</v>
       </c>
-      <c r="V15" t="n">
+      <c r="AK15" t="n">
         <v>2.574333755834349</v>
       </c>
-      <c r="W15" t="n">
+      <c r="AL15" t="n">
         <v>0.06498773883190027</v>
       </c>
-      <c r="X15" t="n">
+      <c r="AM15" t="n">
         <v>1.391245559850809</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="AN15" t="n">
         <v>0.1156363214622857</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="AO15" t="n">
         <v>0.8193780408479611</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AP15" t="n">
         <v>0.1013686996625001</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AQ15" t="n">
         <v>0.2842040201258826</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AR15" t="n">
         <v>0.1556520673659995</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AS15" t="n">
         <v>0.3011913240238181</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AT15" t="n">
         <v>0.2220870819721415</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AU15" t="n">
         <v>0.9004218801193142</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AV15" t="n">
         <v>1.999726427611128</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AW15" t="n">
         <v>3.092392562674481</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AX15" t="n">
         <v>1.832718148548613</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AY15" t="n">
         <v>3.478812255950715</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AZ15" t="n">
         <v>0.7611899668741579</v>
       </c>
     </row>
@@ -2213,105 +2918,150 @@
         <v>0.4898979485566356</v>
       </c>
       <c r="D16" t="n">
+        <v>23.82482113680931</v>
+      </c>
+      <c r="E16" t="n">
         <v>3.085112029689678</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
+        <v>25.73685558540818</v>
+      </c>
+      <c r="G16" t="n">
         <v>0.8964889476448088</v>
       </c>
-      <c r="F16" t="n">
+      <c r="H16" t="n">
+        <v>33.99338587239095</v>
+      </c>
+      <c r="I16" t="n">
         <v>1.802920926153254</v>
       </c>
-      <c r="G16" t="n">
+      <c r="J16" t="n">
+        <v>31.43119467613355</v>
+      </c>
+      <c r="K16" t="n">
         <v>3.237487826694182</v>
       </c>
-      <c r="H16" t="n">
+      <c r="L16" t="n">
+        <v>31.25964976907266</v>
+      </c>
+      <c r="M16" t="n">
         <v>1.481633803291051</v>
       </c>
-      <c r="I16" t="n">
+      <c r="N16" t="n">
+        <v>30.86771069844702</v>
+      </c>
+      <c r="O16" t="n">
         <v>1.103396564409642</v>
       </c>
-      <c r="J16" t="n">
+      <c r="P16" t="n">
+        <v>30.5926199771027</v>
+      </c>
+      <c r="Q16" t="n">
         <v>1.335375287063463</v>
       </c>
-      <c r="K16" t="n">
+      <c r="R16" t="n">
+        <v>28.03415341609439</v>
+      </c>
+      <c r="S16" t="n">
         <v>3.331233625926862</v>
       </c>
-      <c r="L16" t="n">
+      <c r="T16" t="n">
+        <v>28.03573185526595</v>
+      </c>
+      <c r="U16" t="n">
         <v>3.078705336881485</v>
       </c>
-      <c r="M16" t="n">
+      <c r="V16" t="n">
+        <v>27.20520596002316</v>
+      </c>
+      <c r="W16" t="n">
         <v>2.474352673044883</v>
       </c>
-      <c r="N16" t="n">
+      <c r="X16" t="n">
+        <v>26.38653497075915</v>
+      </c>
+      <c r="Y16" t="n">
         <v>2.00565838507077</v>
       </c>
-      <c r="O16" t="n">
+      <c r="Z16" t="n">
+        <v>26.34095061227988</v>
+      </c>
+      <c r="AA16" t="n">
         <v>1.347463917948088</v>
       </c>
-      <c r="P16" t="n">
+      <c r="AB16" t="n">
+        <v>28.9481226843927</v>
+      </c>
+      <c r="AC16" t="n">
         <v>5.455136098144362</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="AD16" t="n">
+        <v>27.89880476475231</v>
+      </c>
+      <c r="AE16" t="n">
         <v>4.89167970661921</v>
       </c>
-      <c r="R16" t="n">
+      <c r="AF16" t="n">
+        <v>24.65680496563826</v>
+      </c>
+      <c r="AG16" t="n">
         <v>5.402430416514704</v>
       </c>
-      <c r="S16" t="n">
+      <c r="AH16" t="n">
         <v>9.734673783169105</v>
       </c>
-      <c r="T16" t="n">
+      <c r="AI16" t="n">
         <v>13.13621601819774</v>
       </c>
-      <c r="U16" t="n">
+      <c r="AJ16" t="n">
         <v>9.794100587881069</v>
       </c>
-      <c r="V16" t="n">
+      <c r="AK16" t="n">
         <v>2.380263350059318</v>
       </c>
-      <c r="W16" t="n">
+      <c r="AL16" t="n">
         <v>0.3534213577211445</v>
       </c>
-      <c r="X16" t="n">
+      <c r="AM16" t="n">
         <v>1.361643755799039</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="AN16" t="n">
         <v>0.1202327862866461</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AO16" t="n">
         <v>0.7426764053150392</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AP16" t="n">
         <v>0.1714945342813604</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AQ16" t="n">
         <v>0.2254265711243412</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AR16" t="n">
         <v>0.1347388866786755</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AS16" t="n">
         <v>0.333007135106201</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AT16" t="n">
         <v>0.1758606532505152</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AU16" t="n">
         <v>1.932141308350737</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AV16" t="n">
         <v>0.5888636383013668</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AW16" t="n">
         <v>4.535792781994365</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AX16" t="n">
         <v>0.6484664448012762</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AY16" t="n">
         <v>3.915906587582482</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AZ16" t="n">
         <v>1.157238083805974</v>
       </c>
     </row>
@@ -2326,105 +3076,150 @@
         <v>0.4898979485566356</v>
       </c>
       <c r="D17" t="n">
+        <v>20.71890099935128</v>
+      </c>
+      <c r="E17" t="n">
         <v>1.59701068158866</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
+        <v>24.85234543477691</v>
+      </c>
+      <c r="G17" t="n">
         <v>2.254195499875459</v>
       </c>
-      <c r="F17" t="n">
+      <c r="H17" t="n">
+        <v>30.30742254871671</v>
+      </c>
+      <c r="I17" t="n">
         <v>1.786458727382162</v>
       </c>
-      <c r="G17" t="n">
+      <c r="J17" t="n">
+        <v>31.89306713890569</v>
+      </c>
+      <c r="K17" t="n">
         <v>3.205079818887657</v>
       </c>
-      <c r="H17" t="n">
+      <c r="L17" t="n">
+        <v>31.28754555727133</v>
+      </c>
+      <c r="M17" t="n">
         <v>1.59986042659589</v>
       </c>
-      <c r="I17" t="n">
+      <c r="N17" t="n">
+        <v>28.09381185979478</v>
+      </c>
+      <c r="O17" t="n">
         <v>1.107003517025632</v>
       </c>
-      <c r="J17" t="n">
+      <c r="P17" t="n">
+        <v>30.44067609367351</v>
+      </c>
+      <c r="Q17" t="n">
         <v>1.269394230355904</v>
       </c>
-      <c r="K17" t="n">
+      <c r="R17" t="n">
+        <v>28.1504378616713</v>
+      </c>
+      <c r="S17" t="n">
         <v>3.241262208439105</v>
       </c>
-      <c r="L17" t="n">
+      <c r="T17" t="n">
+        <v>27.8755851086469</v>
+      </c>
+      <c r="U17" t="n">
         <v>2.919530419514708</v>
       </c>
-      <c r="M17" t="n">
+      <c r="V17" t="n">
+        <v>26.53313943079282</v>
+      </c>
+      <c r="W17" t="n">
         <v>2.855009306781726</v>
       </c>
-      <c r="N17" t="n">
+      <c r="X17" t="n">
+        <v>25.13511088965783</v>
+      </c>
+      <c r="Y17" t="n">
         <v>1.00878834783549</v>
       </c>
-      <c r="O17" t="n">
+      <c r="Z17" t="n">
+        <v>24.35681724075395</v>
+      </c>
+      <c r="AA17" t="n">
         <v>1.196243275085885</v>
       </c>
-      <c r="P17" t="n">
+      <c r="AB17" t="n">
+        <v>29.0422241972761</v>
+      </c>
+      <c r="AC17" t="n">
         <v>5.530106735936382</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="AD17" t="n">
+        <v>27.78234521590126</v>
+      </c>
+      <c r="AE17" t="n">
         <v>5.146096452889743</v>
       </c>
-      <c r="R17" t="n">
+      <c r="AF17" t="n">
+        <v>22.3331852015778</v>
+      </c>
+      <c r="AG17" t="n">
         <v>5.409390684503548</v>
       </c>
-      <c r="S17" t="n">
+      <c r="AH17" t="n">
         <v>10.12102490661972</v>
       </c>
-      <c r="T17" t="n">
+      <c r="AI17" t="n">
         <v>15.88793118421716</v>
       </c>
-      <c r="U17" t="n">
+      <c r="AJ17" t="n">
         <v>12.78828184054509</v>
       </c>
-      <c r="V17" t="n">
+      <c r="AK17" t="n">
         <v>1.877139977648018</v>
       </c>
-      <c r="W17" t="n">
+      <c r="AL17" t="n">
         <v>0.4022843754385654</v>
       </c>
-      <c r="X17" t="n">
+      <c r="AM17" t="n">
         <v>1.203138925569234</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="AN17" t="n">
         <v>0.1756867616354911</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="AO17" t="n">
         <v>0.7406321057270381</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AP17" t="n">
         <v>0.1757025746841602</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AQ17" t="n">
         <v>0.2339314845944596</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AR17" t="n">
         <v>0.2482206583671236</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AS17" t="n">
         <v>0.2736273904260784</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AT17" t="n">
         <v>0.2427407059903494</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AU17" t="n">
         <v>1.587207146604841</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AV17" t="n">
         <v>0.772451806221947</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AW17" t="n">
         <v>4.000678371349566</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AX17" t="n">
         <v>1.086516008693673</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AY17" t="n">
         <v>3.669505374731499</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AZ17" t="n">
         <v>2.052406722826778</v>
       </c>
     </row>
@@ -2439,105 +3234,150 @@
         <v>0.4898979485566356</v>
       </c>
       <c r="D18" t="n">
+        <v>18.36616146293263</v>
+      </c>
+      <c r="E18" t="n">
         <v>3.20789327703501</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
+        <v>24.83391097110941</v>
+      </c>
+      <c r="G18" t="n">
         <v>2.148066493750578</v>
       </c>
-      <c r="F18" t="n">
+      <c r="H18" t="n">
+        <v>31.02854019579309</v>
+      </c>
+      <c r="I18" t="n">
         <v>1.431267827271923</v>
       </c>
-      <c r="G18" t="n">
+      <c r="J18" t="n">
+        <v>32.11295162279351</v>
+      </c>
+      <c r="K18" t="n">
         <v>2.986142278848847</v>
       </c>
-      <c r="H18" t="n">
+      <c r="L18" t="n">
+        <v>31.20443133770066</v>
+      </c>
+      <c r="M18" t="n">
         <v>1.628762049902641</v>
       </c>
-      <c r="I18" t="n">
+      <c r="N18" t="n">
+        <v>27.96126231815441</v>
+      </c>
+      <c r="O18" t="n">
         <v>0.9637695388078045</v>
       </c>
-      <c r="J18" t="n">
+      <c r="P18" t="n">
+        <v>30.24830105436623</v>
+      </c>
+      <c r="Q18" t="n">
         <v>1.27284952355289</v>
       </c>
-      <c r="K18" t="n">
+      <c r="R18" t="n">
+        <v>28.15562186752258</v>
+      </c>
+      <c r="S18" t="n">
         <v>3.361371900289639</v>
       </c>
-      <c r="L18" t="n">
+      <c r="T18" t="n">
+        <v>27.76639412068901</v>
+      </c>
+      <c r="U18" t="n">
         <v>2.891628011999446</v>
       </c>
-      <c r="M18" t="n">
+      <c r="V18" t="n">
+        <v>25.80218846877046</v>
+      </c>
+      <c r="W18" t="n">
         <v>3.15400873445812</v>
       </c>
-      <c r="N18" t="n">
+      <c r="X18" t="n">
+        <v>24.19224106829753</v>
+      </c>
+      <c r="Y18" t="n">
         <v>0.7948353343430403</v>
       </c>
-      <c r="O18" t="n">
+      <c r="Z18" t="n">
+        <v>22.90131675520012</v>
+      </c>
+      <c r="AA18" t="n">
         <v>1.290727906093123</v>
       </c>
-      <c r="P18" t="n">
+      <c r="AB18" t="n">
+        <v>29.0728004196962</v>
+      </c>
+      <c r="AC18" t="n">
         <v>5.480524239869941</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="AD18" t="n">
+        <v>27.8705787449733</v>
+      </c>
+      <c r="AE18" t="n">
         <v>5.542036697655282</v>
       </c>
-      <c r="R18" t="n">
+      <c r="AF18" t="n">
+        <v>11.96019237492415</v>
+      </c>
+      <c r="AG18" t="n">
         <v>5.728703427171022</v>
       </c>
-      <c r="S18" t="n">
+      <c r="AH18" t="n">
         <v>9.411132839630175</v>
       </c>
-      <c r="T18" t="n">
+      <c r="AI18" t="n">
         <v>18.15201660593356</v>
       </c>
-      <c r="U18" t="n">
+      <c r="AJ18" t="n">
         <v>16.19858192416812</v>
       </c>
-      <c r="V18" t="n">
+      <c r="AK18" t="n">
         <v>1.580001679076248</v>
       </c>
-      <c r="W18" t="n">
+      <c r="AL18" t="n">
         <v>0.1922031304397837</v>
       </c>
-      <c r="X18" t="n">
+      <c r="AM18" t="n">
         <v>1.043636751331121</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="AN18" t="n">
         <v>0.1873583667248428</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="AO18" t="n">
         <v>0.7237465565082798</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AP18" t="n">
         <v>0.1018043356924329</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AQ18" t="n">
         <v>0.400774969118928</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AR18" t="n">
         <v>0.2307762598727833</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AS18" t="n">
         <v>0.1905158304475942</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AT18" t="n">
         <v>0.2924755661406774</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AU18" t="n">
         <v>2.096648791928897</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AV18" t="n">
         <v>0.5235068315903446</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AW18" t="n">
         <v>3.347241403194991</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AX18" t="n">
         <v>1.087654961910784</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AY18" t="n">
         <v>3.281039410535329</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AZ18" t="n">
         <v>2.401957685603118</v>
       </c>
     </row>
@@ -2552,105 +3392,150 @@
         <v>0.4898979485566356</v>
       </c>
       <c r="D19" t="n">
+        <v>19.08205937462677</v>
+      </c>
+      <c r="E19" t="n">
         <v>1.390551574958332</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
+        <v>24.52257880673155</v>
+      </c>
+      <c r="G19" t="n">
         <v>2.200985146976012</v>
       </c>
-      <c r="F19" t="n">
+      <c r="H19" t="n">
+        <v>33.18766030968657</v>
+      </c>
+      <c r="I19" t="n">
         <v>1.222451172209564</v>
       </c>
-      <c r="G19" t="n">
+      <c r="J19" t="n">
+        <v>31.7499726121629</v>
+      </c>
+      <c r="K19" t="n">
         <v>3.008604319405448</v>
       </c>
-      <c r="H19" t="n">
+      <c r="L19" t="n">
+        <v>31.25270270923535</v>
+      </c>
+      <c r="M19" t="n">
         <v>1.642124400414595</v>
       </c>
-      <c r="I19" t="n">
+      <c r="N19" t="n">
+        <v>28.09289836955599</v>
+      </c>
+      <c r="O19" t="n">
         <v>0.9323226754927662</v>
       </c>
-      <c r="J19" t="n">
+      <c r="P19" t="n">
+        <v>30.24307463107202</v>
+      </c>
+      <c r="Q19" t="n">
         <v>1.333253080990267</v>
       </c>
-      <c r="K19" t="n">
+      <c r="R19" t="n">
+        <v>28.10673666426889</v>
+      </c>
+      <c r="S19" t="n">
         <v>3.510795298644103</v>
       </c>
-      <c r="L19" t="n">
+      <c r="T19" t="n">
+        <v>27.48557296407776</v>
+      </c>
+      <c r="U19" t="n">
         <v>3.021291432898252</v>
       </c>
-      <c r="M19" t="n">
+      <c r="V19" t="n">
+        <v>25.19072538334716</v>
+      </c>
+      <c r="W19" t="n">
         <v>3.133793298993277</v>
       </c>
-      <c r="N19" t="n">
+      <c r="X19" t="n">
+        <v>23.13904053312357</v>
+      </c>
+      <c r="Y19" t="n">
         <v>1.456631446629051</v>
       </c>
-      <c r="O19" t="n">
+      <c r="Z19" t="n">
+        <v>21.45509564168844</v>
+      </c>
+      <c r="AA19" t="n">
         <v>1.106481272298787</v>
       </c>
-      <c r="P19" t="n">
+      <c r="AB19" t="n">
+        <v>29.06233948300579</v>
+      </c>
+      <c r="AC19" t="n">
         <v>5.580170427572578</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="AD19" t="n">
+        <v>28.03701997651127</v>
+      </c>
+      <c r="AE19" t="n">
         <v>5.672247051363108</v>
       </c>
-      <c r="R19" t="n">
+      <c r="AF19" t="n">
+        <v>25.17677173387192</v>
+      </c>
+      <c r="AG19" t="n">
         <v>6.228339517854998</v>
       </c>
-      <c r="S19" t="n">
+      <c r="AH19" t="n">
         <v>9.055967800744735</v>
       </c>
-      <c r="T19" t="n">
+      <c r="AI19" t="n">
         <v>22.43739506764038</v>
       </c>
-      <c r="U19" t="n">
+      <c r="AJ19" t="n">
         <v>15.09126107595268</v>
       </c>
-      <c r="V19" t="n">
+      <c r="AK19" t="n">
         <v>1.515194625602656</v>
       </c>
-      <c r="W19" t="n">
+      <c r="AL19" t="n">
         <v>0.1733984784283847</v>
       </c>
-      <c r="X19" t="n">
+      <c r="AM19" t="n">
         <v>1.045454723319485</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="AN19" t="n">
         <v>0.1575033726938517</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="AO19" t="n">
         <v>0.6381461704128202</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AP19" t="n">
         <v>0.1582401717657942</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AQ19" t="n">
         <v>0.5126287646089465</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AR19" t="n">
         <v>0.0977710160273787</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AS19" t="n">
         <v>0.4263706683959521</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AT19" t="n">
         <v>0.159945288818572</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AU19" t="n">
         <v>1.205721980821293</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AV19" t="n">
         <v>1.158689763555682</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AW19" t="n">
         <v>4.524682217710255</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AX19" t="n">
         <v>0.5406673014320067</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AY19" t="n">
         <v>2.14455260674419</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AZ19" t="n">
         <v>1.404274747281043</v>
       </c>
     </row>
@@ -2665,105 +3550,150 @@
         <v>0.4898979485566356</v>
       </c>
       <c r="D20" t="n">
+        <v>18.27038824136362</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.9412121750014568</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
+        <v>28.07585349136118</v>
+      </c>
+      <c r="G20" t="n">
         <v>2.249445774544809</v>
       </c>
-      <c r="F20" t="n">
+      <c r="H20" t="n">
+        <v>32.40958479529458</v>
+      </c>
+      <c r="I20" t="n">
         <v>0.6813114223401608</v>
       </c>
-      <c r="G20" t="n">
+      <c r="J20" t="n">
+        <v>33.26146523568691</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.7271136734981578</v>
       </c>
-      <c r="H20" t="n">
+      <c r="L20" t="n">
+        <v>28.70267391106526</v>
+      </c>
+      <c r="M20" t="n">
         <v>1.715193145690517</v>
       </c>
-      <c r="I20" t="n">
+      <c r="N20" t="n">
+        <v>27.80843128333868</v>
+      </c>
+      <c r="O20" t="n">
         <v>0.9978318679107199</v>
       </c>
-      <c r="J20" t="n">
+      <c r="P20" t="n">
+        <v>29.93298455524989</v>
+      </c>
+      <c r="Q20" t="n">
         <v>1.372487000144942</v>
       </c>
-      <c r="K20" t="n">
+      <c r="R20" t="n">
+        <v>27.60262060815887</v>
+      </c>
+      <c r="S20" t="n">
         <v>3.740306646113605</v>
       </c>
-      <c r="L20" t="n">
+      <c r="T20" t="n">
+        <v>27.00871713723624</v>
+      </c>
+      <c r="U20" t="n">
         <v>3.153711536376826</v>
       </c>
-      <c r="M20" t="n">
+      <c r="V20" t="n">
+        <v>24.65143205578441</v>
+      </c>
+      <c r="W20" t="n">
         <v>3.170910961016012</v>
       </c>
-      <c r="N20" t="n">
+      <c r="X20" t="n">
+        <v>22.18962079377635</v>
+      </c>
+      <c r="Y20" t="n">
         <v>1.943094388000489</v>
       </c>
-      <c r="O20" t="n">
+      <c r="Z20" t="n">
+        <v>20.21003516730502</v>
+      </c>
+      <c r="AA20" t="n">
         <v>1.033245912410522</v>
       </c>
-      <c r="P20" t="n">
+      <c r="AB20" t="n">
+        <v>29.032794676874</v>
+      </c>
+      <c r="AC20" t="n">
         <v>5.623355015794712</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="AD20" t="n">
+        <v>27.88459479779304</v>
+      </c>
+      <c r="AE20" t="n">
         <v>6.065266410887983</v>
       </c>
-      <c r="R20" t="n">
+      <c r="AF20" t="n">
+        <v>25.31944586956372</v>
+      </c>
+      <c r="AG20" t="n">
         <v>6.774307563856427</v>
       </c>
-      <c r="S20" t="n">
+      <c r="AH20" t="n">
         <v>8.45996879895625</v>
       </c>
-      <c r="T20" t="n">
+      <c r="AI20" t="n">
         <v>26.250690541858</v>
       </c>
-      <c r="U20" t="n">
+      <c r="AJ20" t="n">
         <v>16.48323533645985</v>
       </c>
-      <c r="V20" t="n">
+      <c r="AK20" t="n">
         <v>1.24441039263206</v>
       </c>
-      <c r="W20" t="n">
+      <c r="AL20" t="n">
         <v>0.3189737196457391</v>
       </c>
-      <c r="X20" t="n">
+      <c r="AM20" t="n">
         <v>0.9639586612172177</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="AN20" t="n">
         <v>0.17890512149177</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="AO20" t="n">
         <v>0.4915529298372495</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AP20" t="n">
         <v>0.2024812738311971</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AQ20" t="n">
         <v>0.3988746510190104</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AR20" t="n">
         <v>0.1087944725661682</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AS20" t="n">
         <v>0.4175470587230794</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AT20" t="n">
         <v>0.1601509577848908</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AU20" t="n">
         <v>2.017805839432948</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AV20" t="n">
         <v>1.619732427267692</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AW20" t="n">
         <v>3.346098663699594</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AX20" t="n">
         <v>1.499523169466947</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AY20" t="n">
         <v>1.221851596353347</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AZ20" t="n">
         <v>1.30848639815489</v>
       </c>
     </row>
@@ -2778,105 +3708,150 @@
         <v>0.4898979485566356</v>
       </c>
       <c r="D21" t="n">
+        <v>18.4716057154437</v>
+      </c>
+      <c r="E21" t="n">
         <v>1.022751564986309</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
+        <v>20.92355766394186</v>
+      </c>
+      <c r="G21" t="n">
         <v>2.331558588971949</v>
       </c>
-      <c r="F21" t="n">
+      <c r="H21" t="n">
+        <v>32.67585511717689</v>
+      </c>
+      <c r="I21" t="n">
         <v>1.099422596315391</v>
       </c>
-      <c r="G21" t="n">
+      <c r="J21" t="n">
+        <v>30.34294686114492</v>
+      </c>
+      <c r="K21" t="n">
         <v>3.538338004036789</v>
       </c>
-      <c r="H21" t="n">
+      <c r="L21" t="n">
+        <v>28.59837218362757</v>
+      </c>
+      <c r="M21" t="n">
         <v>1.528259720223537</v>
       </c>
-      <c r="I21" t="n">
+      <c r="N21" t="n">
+        <v>27.82055069012809</v>
+      </c>
+      <c r="O21" t="n">
         <v>0.9597777004545792</v>
       </c>
-      <c r="J21" t="n">
+      <c r="P21" t="n">
+        <v>29.81820860342216</v>
+      </c>
+      <c r="Q21" t="n">
         <v>1.557228261683837</v>
       </c>
-      <c r="K21" t="n">
+      <c r="R21" t="n">
+        <v>27.52682198183406</v>
+      </c>
+      <c r="S21" t="n">
         <v>3.932727939716706</v>
       </c>
-      <c r="L21" t="n">
+      <c r="T21" t="n">
+        <v>26.91959199739379</v>
+      </c>
+      <c r="U21" t="n">
         <v>3.195024475675772</v>
       </c>
-      <c r="M21" t="n">
+      <c r="V21" t="n">
+        <v>24.35813979670676</v>
+      </c>
+      <c r="W21" t="n">
         <v>3.371760659556768</v>
       </c>
-      <c r="N21" t="n">
+      <c r="X21" t="n">
+        <v>21.36967878394059</v>
+      </c>
+      <c r="Y21" t="n">
         <v>2.334433508123504</v>
       </c>
-      <c r="O21" t="n">
+      <c r="Z21" t="n">
+        <v>19.20311619132953</v>
+      </c>
+      <c r="AA21" t="n">
         <v>0.8522391146659782</v>
       </c>
-      <c r="P21" t="n">
+      <c r="AB21" t="n">
+        <v>29.07380558352378</v>
+      </c>
+      <c r="AC21" t="n">
         <v>5.829088722381518</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="AD21" t="n">
+        <v>27.89345642052886</v>
+      </c>
+      <c r="AE21" t="n">
         <v>6.41366393574103</v>
       </c>
-      <c r="R21" t="n">
+      <c r="AF21" t="n">
+        <v>25.4136472545484</v>
+      </c>
+      <c r="AG21" t="n">
         <v>6.985020164038409</v>
       </c>
-      <c r="S21" t="n">
+      <c r="AH21" t="n">
         <v>11.13834117573302</v>
       </c>
-      <c r="T21" t="n">
+      <c r="AI21" t="n">
         <v>28.02352882941604</v>
       </c>
-      <c r="U21" t="n">
+      <c r="AJ21" t="n">
         <v>16.55148327898318</v>
       </c>
-      <c r="V21" t="n">
+      <c r="AK21" t="n">
         <v>0.9406959846668431</v>
       </c>
-      <c r="W21" t="n">
+      <c r="AL21" t="n">
         <v>0.3585241224429368</v>
       </c>
-      <c r="X21" t="n">
+      <c r="AM21" t="n">
         <v>0.7257710948411814</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="AN21" t="n">
         <v>0.3846904054305776</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="AO21" t="n">
         <v>0.4070728824921249</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AP21" t="n">
         <v>0.1970260467535065</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AQ21" t="n">
         <v>0.3552229557407712</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AR21" t="n">
         <v>0.2037859528957261</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AS21" t="n">
         <v>0.4317108208289606</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AT21" t="n">
         <v>0.182137613677449</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AU21" t="n">
         <v>2.54423261342614</v>
       </c>
-      <c r="AG21" t="n">
+      <c r="AV21" t="n">
         <v>1.794925517570033</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AW21" t="n">
         <v>1.862658166060408</v>
       </c>
-      <c r="AI21" t="n">
+      <c r="AX21" t="n">
         <v>1.631079699398661</v>
       </c>
-      <c r="AJ21" t="n">
+      <c r="AY21" t="n">
         <v>1.502856403589642</v>
       </c>
-      <c r="AK21" t="n">
+      <c r="AZ21" t="n">
         <v>0.9275528200757294</v>
       </c>
     </row>
@@ -2891,105 +3866,150 @@
         <v>0.4898979485566356</v>
       </c>
       <c r="D22" t="n">
+        <v>18.26882155746937</v>
+      </c>
+      <c r="E22" t="n">
         <v>1.057107489409164</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
+        <v>26.39296122431319</v>
+      </c>
+      <c r="G22" t="n">
         <v>2.822600422613515</v>
       </c>
-      <c r="F22" t="n">
+      <c r="H22" t="n">
+        <v>32.68997114070939</v>
+      </c>
+      <c r="I22" t="n">
         <v>0.5015220249573309</v>
       </c>
-      <c r="G22" t="n">
+      <c r="J22" t="n">
+        <v>31.17681757297783</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.981793988153668</v>
       </c>
-      <c r="H22" t="n">
+      <c r="L22" t="n">
+        <v>28.73533417784364</v>
+      </c>
+      <c r="M22" t="n">
         <v>1.461387802449422</v>
       </c>
-      <c r="I22" t="n">
+      <c r="N22" t="n">
+        <v>26.29380311826351</v>
+      </c>
+      <c r="O22" t="n">
         <v>1.285441037266062</v>
       </c>
-      <c r="J22" t="n">
+      <c r="P22" t="n">
+        <v>29.66760172061931</v>
+      </c>
+      <c r="Q22" t="n">
         <v>1.633264611703691</v>
       </c>
-      <c r="K22" t="n">
+      <c r="R22" t="n">
+        <v>27.18670916287125</v>
+      </c>
+      <c r="S22" t="n">
         <v>4.194333401756397</v>
       </c>
-      <c r="L22" t="n">
+      <c r="T22" t="n">
+        <v>26.61758458265148</v>
+      </c>
+      <c r="U22" t="n">
         <v>3.472477752085883</v>
       </c>
-      <c r="M22" t="n">
+      <c r="V22" t="n">
+        <v>24.04418259470715</v>
+      </c>
+      <c r="W22" t="n">
         <v>3.395478423338115</v>
       </c>
-      <c r="N22" t="n">
+      <c r="X22" t="n">
+        <v>20.81793151432182</v>
+      </c>
+      <c r="Y22" t="n">
         <v>2.585176061059058</v>
       </c>
-      <c r="O22" t="n">
+      <c r="Z22" t="n">
+        <v>18.41200032963467</v>
+      </c>
+      <c r="AA22" t="n">
         <v>0.7709950437040258</v>
       </c>
-      <c r="P22" t="n">
+      <c r="AB22" t="n">
+        <v>29.08673672104604</v>
+      </c>
+      <c r="AC22" t="n">
         <v>5.986144631679233</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="AD22" t="n">
+        <v>28.21106823665626</v>
+      </c>
+      <c r="AE22" t="n">
         <v>6.905989032086824</v>
       </c>
-      <c r="R22" t="n">
+      <c r="AF22" t="n">
+        <v>25.51664121536373</v>
+      </c>
+      <c r="AG22" t="n">
         <v>7.395428252614573</v>
       </c>
-      <c r="S22" t="n">
+      <c r="AH22" t="n">
         <v>12.39916411470379</v>
       </c>
-      <c r="T22" t="n">
+      <c r="AI22" t="n">
         <v>28.99005268681278</v>
       </c>
-      <c r="U22" t="n">
+      <c r="AJ22" t="n">
         <v>15.55532626242446</v>
       </c>
-      <c r="V22" t="n">
+      <c r="AK22" t="n">
         <v>0.5890703915512523</v>
       </c>
-      <c r="W22" t="n">
+      <c r="AL22" t="n">
         <v>0.40865545786043</v>
       </c>
-      <c r="X22" t="n">
+      <c r="AM22" t="n">
         <v>0.3688136157416316</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="AN22" t="n">
         <v>0.4843317065415948</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="AO22" t="n">
         <v>0.4509567079180213</v>
       </c>
-      <c r="AA22" t="n">
+      <c r="AP22" t="n">
         <v>0.1826368280232029</v>
       </c>
-      <c r="AB22" t="n">
+      <c r="AQ22" t="n">
         <v>0.4812311534509578</v>
       </c>
-      <c r="AC22" t="n">
+      <c r="AR22" t="n">
         <v>0.137415463744753</v>
       </c>
-      <c r="AD22" t="n">
+      <c r="AS22" t="n">
         <v>0.521477130520808</v>
       </c>
-      <c r="AE22" t="n">
+      <c r="AT22" t="n">
         <v>0.08795625521338932</v>
       </c>
-      <c r="AF22" t="n">
+      <c r="AU22" t="n">
         <v>1.803979778295943</v>
       </c>
-      <c r="AG22" t="n">
+      <c r="AV22" t="n">
         <v>2.916113302866391</v>
       </c>
-      <c r="AH22" t="n">
+      <c r="AW22" t="n">
         <v>2.009954998355721</v>
       </c>
-      <c r="AI22" t="n">
+      <c r="AX22" t="n">
         <v>1.252732790448906</v>
       </c>
-      <c r="AJ22" t="n">
+      <c r="AY22" t="n">
         <v>1.582354394288371</v>
       </c>
-      <c r="AK22" t="n">
+      <c r="AZ22" t="n">
         <v>1.957849433187036</v>
       </c>
     </row>
@@ -3004,105 +4024,150 @@
         <v>0.4898979485566356</v>
       </c>
       <c r="D23" t="n">
+        <v>14.98030298955631</v>
+      </c>
+      <c r="E23" t="n">
         <v>3.587668666858519</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
+        <v>27.4353056459849</v>
+      </c>
+      <c r="G23" t="n">
         <v>1.560384258799924</v>
       </c>
-      <c r="F23" t="n">
+      <c r="H23" t="n">
+        <v>31.33912655389677</v>
+      </c>
+      <c r="I23" t="n">
         <v>1.557562409213457</v>
       </c>
-      <c r="G23" t="n">
+      <c r="J23" t="n">
+        <v>30.10384611426158</v>
+      </c>
+      <c r="K23" t="n">
         <v>1.344136352228711</v>
       </c>
-      <c r="H23" t="n">
+      <c r="L23" t="n">
+        <v>30.00605948710536</v>
+      </c>
+      <c r="M23" t="n">
         <v>1.74657833392146</v>
       </c>
-      <c r="I23" t="n">
+      <c r="N23" t="n">
+        <v>26.20648073799893</v>
+      </c>
+      <c r="O23" t="n">
         <v>1.201227899912746</v>
       </c>
-      <c r="J23" t="n">
+      <c r="P23" t="n">
+        <v>29.56456731213885</v>
+      </c>
+      <c r="Q23" t="n">
         <v>1.646979554072676</v>
       </c>
-      <c r="K23" t="n">
+      <c r="R23" t="n">
+        <v>26.99697938556378</v>
+      </c>
+      <c r="S23" t="n">
         <v>4.2994776175222</v>
       </c>
-      <c r="L23" t="n">
+      <c r="T23" t="n">
+        <v>26.49286563101806</v>
+      </c>
+      <c r="U23" t="n">
         <v>3.517504748627391</v>
       </c>
-      <c r="M23" t="n">
+      <c r="V23" t="n">
+        <v>23.6638043620849</v>
+      </c>
+      <c r="W23" t="n">
         <v>3.225617398579054</v>
       </c>
-      <c r="N23" t="n">
+      <c r="X23" t="n">
+        <v>20.81634615815316</v>
+      </c>
+      <c r="Y23" t="n">
         <v>2.682899366170481</v>
       </c>
-      <c r="O23" t="n">
+      <c r="Z23" t="n">
+        <v>18.11728183024962</v>
+      </c>
+      <c r="AA23" t="n">
         <v>0.8142482815524238</v>
       </c>
-      <c r="P23" t="n">
+      <c r="AB23" t="n">
+        <v>29.05697722615396</v>
+      </c>
+      <c r="AC23" t="n">
         <v>5.956139739614456</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="AD23" t="n">
+        <v>28.07049331901554</v>
+      </c>
+      <c r="AE23" t="n">
         <v>7.110209791052283</v>
       </c>
-      <c r="R23" t="n">
+      <c r="AF23" t="n">
+        <v>25.68806649262542</v>
+      </c>
+      <c r="AG23" t="n">
         <v>7.713163687377191</v>
       </c>
-      <c r="S23" t="n">
+      <c r="AH23" t="n">
         <v>11.14747424726647</v>
       </c>
-      <c r="T23" t="n">
+      <c r="AI23" t="n">
         <v>30.21475007700797</v>
       </c>
-      <c r="U23" t="n">
+      <c r="AJ23" t="n">
         <v>17.50222123712804</v>
       </c>
-      <c r="V23" t="n">
+      <c r="AK23" t="n">
         <v>0.1979141849132174</v>
       </c>
-      <c r="W23" t="n">
+      <c r="AL23" t="n">
         <v>0.318431961945536</v>
       </c>
-      <c r="X23" t="n">
+      <c r="AM23" t="n">
         <v>0.3593102925934953</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="AN23" t="n">
         <v>0.3968269398695989</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="AO23" t="n">
         <v>0.3180953549589458</v>
       </c>
-      <c r="AA23" t="n">
+      <c r="AP23" t="n">
         <v>0.3213591859251634</v>
       </c>
-      <c r="AB23" t="n">
+      <c r="AQ23" t="n">
         <v>0.3699979375493391</v>
       </c>
-      <c r="AC23" t="n">
+      <c r="AR23" t="n">
         <v>0.2538932022007198</v>
       </c>
-      <c r="AD23" t="n">
+      <c r="AS23" t="n">
         <v>0.3836501090722262</v>
       </c>
-      <c r="AE23" t="n">
+      <c r="AT23" t="n">
         <v>0.2434417376560325</v>
       </c>
-      <c r="AF23" t="n">
+      <c r="AU23" t="n">
         <v>3.424617357430193</v>
       </c>
-      <c r="AG23" t="n">
+      <c r="AV23" t="n">
         <v>2.218884651307854</v>
       </c>
-      <c r="AH23" t="n">
+      <c r="AW23" t="n">
         <v>1.53511818395581</v>
       </c>
-      <c r="AI23" t="n">
+      <c r="AX23" t="n">
         <v>1.459359976918462</v>
       </c>
-      <c r="AJ23" t="n">
+      <c r="AY23" t="n">
         <v>2.631088771169151</v>
       </c>
-      <c r="AK23" t="n">
+      <c r="AZ23" t="n">
         <v>0.9043723068632642</v>
       </c>
     </row>
@@ -3117,105 +4182,150 @@
         <v>0.4898979485566356</v>
       </c>
       <c r="D24" t="n">
+        <v>16.1820380851252</v>
+      </c>
+      <c r="E24" t="n">
         <v>3.833788366134494</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
+        <v>26.47446295693845</v>
+      </c>
+      <c r="G24" t="n">
         <v>2.385063321864111</v>
       </c>
-      <c r="F24" t="n">
+      <c r="H24" t="n">
+        <v>29.84419348344362</v>
+      </c>
+      <c r="I24" t="n">
         <v>1.376858421412234</v>
       </c>
-      <c r="G24" t="n">
+      <c r="J24" t="n">
+        <v>28.77639711561478</v>
+      </c>
+      <c r="K24" t="n">
         <v>1.655529888176312</v>
       </c>
-      <c r="H24" t="n">
+      <c r="L24" t="n">
+        <v>29.41132008371055</v>
+      </c>
+      <c r="M24" t="n">
         <v>1.86373769986157</v>
       </c>
-      <c r="I24" t="n">
+      <c r="N24" t="n">
+        <v>28.34536404800194</v>
+      </c>
+      <c r="O24" t="n">
         <v>1.640225735757519</v>
       </c>
-      <c r="J24" t="n">
+      <c r="P24" t="n">
+        <v>29.25414752917673</v>
+      </c>
+      <c r="Q24" t="n">
         <v>2.074379275647986</v>
       </c>
-      <c r="K24" t="n">
+      <c r="R24" t="n">
+        <v>27.01513921235624</v>
+      </c>
+      <c r="S24" t="n">
         <v>3.955593737844576</v>
       </c>
-      <c r="L24" t="n">
+      <c r="T24" t="n">
+        <v>26.53724318628036</v>
+      </c>
+      <c r="U24" t="n">
         <v>3.278551181846058</v>
       </c>
-      <c r="M24" t="n">
+      <c r="V24" t="n">
+        <v>23.84307630276856</v>
+      </c>
+      <c r="W24" t="n">
         <v>2.840686138197659</v>
       </c>
-      <c r="N24" t="n">
+      <c r="X24" t="n">
+        <v>21.18401835478051</v>
+      </c>
+      <c r="Y24" t="n">
         <v>3.06296408318874</v>
       </c>
-      <c r="O24" t="n">
+      <c r="Z24" t="n">
+        <v>18.10252981010519</v>
+      </c>
+      <c r="AA24" t="n">
         <v>1.087449301674629</v>
       </c>
-      <c r="P24" t="n">
+      <c r="AB24" t="n">
+        <v>29.06219091384819</v>
+      </c>
+      <c r="AC24" t="n">
         <v>5.739540131508552</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="AD24" t="n">
+        <v>27.87799915978344</v>
+      </c>
+      <c r="AE24" t="n">
         <v>7.11286844672208</v>
       </c>
-      <c r="R24" t="n">
+      <c r="AF24" t="n">
+        <v>25.93432878568082</v>
+      </c>
+      <c r="AG24" t="n">
         <v>7.971972672975453</v>
       </c>
-      <c r="S24" t="n">
+      <c r="AH24" t="n">
         <v>7.185400486045102</v>
       </c>
-      <c r="T24" t="n">
+      <c r="AI24" t="n">
         <v>30.33405717140192</v>
       </c>
-      <c r="U24" t="n">
+      <c r="AJ24" t="n">
         <v>18.11342684210699</v>
       </c>
-      <c r="V24" t="n">
+      <c r="AK24" t="n">
         <v>0.1294917708132837</v>
       </c>
-      <c r="W24" t="n">
+      <c r="AL24" t="n">
         <v>0.197158025316469</v>
       </c>
-      <c r="X24" t="n">
+      <c r="AM24" t="n">
         <v>0.5940570012203898</v>
       </c>
-      <c r="Y24" t="n">
+      <c r="AN24" t="n">
         <v>0.3179404650471311</v>
       </c>
-      <c r="Z24" t="n">
+      <c r="AO24" t="n">
         <v>0.318549501059605</v>
       </c>
-      <c r="AA24" t="n">
+      <c r="AP24" t="n">
         <v>0.3044890023130132</v>
       </c>
-      <c r="AB24" t="n">
+      <c r="AQ24" t="n">
         <v>0.2736360867369989</v>
       </c>
-      <c r="AC24" t="n">
+      <c r="AR24" t="n">
         <v>0.205054778710958</v>
       </c>
-      <c r="AD24" t="n">
+      <c r="AS24" t="n">
         <v>0.2893745514992898</v>
       </c>
-      <c r="AE24" t="n">
+      <c r="AT24" t="n">
         <v>0.1686842374756289</v>
       </c>
-      <c r="AF24" t="n">
+      <c r="AU24" t="n">
         <v>4.496192601057514</v>
       </c>
-      <c r="AG24" t="n">
+      <c r="AV24" t="n">
         <v>1.245357064992947</v>
       </c>
-      <c r="AH24" t="n">
+      <c r="AW24" t="n">
         <v>1.076843905320403</v>
       </c>
-      <c r="AI24" t="n">
+      <c r="AX24" t="n">
         <v>1.045186839840435</v>
       </c>
-      <c r="AJ24" t="n">
+      <c r="AY24" t="n">
         <v>1.551105542818661</v>
       </c>
-      <c r="AK24" t="n">
+      <c r="AZ24" t="n">
         <v>1.506870042218917</v>
       </c>
     </row>
@@ -3230,105 +4340,150 @@
         <v>0.4898979485566356</v>
       </c>
       <c r="D25" t="n">
+        <v>25.08780566642985</v>
+      </c>
+      <c r="E25" t="n">
         <v>2.93704944689621</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
+        <v>17.53197415900479</v>
+      </c>
+      <c r="G25" t="n">
         <v>3.376405477752201</v>
       </c>
-      <c r="F25" t="n">
+      <c r="H25" t="n">
+        <v>26.89815757617246</v>
+      </c>
+      <c r="I25" t="n">
         <v>1.127796008964521</v>
       </c>
-      <c r="G25" t="n">
+      <c r="J25" t="n">
+        <v>22.78870769404899</v>
+      </c>
+      <c r="K25" t="n">
         <v>4.475330550594396</v>
       </c>
-      <c r="H25" t="n">
+      <c r="L25" t="n">
+        <v>27.44849106915261</v>
+      </c>
+      <c r="M25" t="n">
         <v>0.972890512076143</v>
       </c>
-      <c r="I25" t="n">
+      <c r="N25" t="n">
+        <v>25.56592758989536</v>
+      </c>
+      <c r="O25" t="n">
         <v>1.181588025594431</v>
       </c>
-      <c r="J25" t="n">
+      <c r="P25" t="n">
+        <v>28.66648006732503</v>
+      </c>
+      <c r="Q25" t="n">
         <v>1.82977684522391</v>
       </c>
-      <c r="K25" t="n">
+      <c r="R25" t="n">
+        <v>27.01124993913315</v>
+      </c>
+      <c r="S25" t="n">
         <v>3.885207493500783</v>
       </c>
-      <c r="L25" t="n">
+      <c r="T25" t="n">
+        <v>26.76028544379977</v>
+      </c>
+      <c r="U25" t="n">
         <v>3.105276502688664</v>
       </c>
-      <c r="M25" t="n">
+      <c r="V25" t="n">
+        <v>24.14863118274</v>
+      </c>
+      <c r="W25" t="n">
         <v>2.336684942964535</v>
       </c>
-      <c r="N25" t="n">
+      <c r="X25" t="n">
+        <v>21.7501187673378</v>
+      </c>
+      <c r="Y25" t="n">
         <v>3.26482945153795</v>
       </c>
-      <c r="O25" t="n">
+      <c r="Z25" t="n">
+        <v>18.13202014899781</v>
+      </c>
+      <c r="AA25" t="n">
         <v>1.334697953025232</v>
       </c>
-      <c r="P25" t="n">
+      <c r="AB25" t="n">
+        <v>29.23336838996645</v>
+      </c>
+      <c r="AC25" t="n">
         <v>5.796383012866705</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="AD25" t="n">
+        <v>27.98228580718934</v>
+      </c>
+      <c r="AE25" t="n">
         <v>7.068541863822752</v>
       </c>
-      <c r="R25" t="n">
+      <c r="AF25" t="n">
+        <v>26.09174037440206</v>
+      </c>
+      <c r="AG25" t="n">
         <v>7.948858320724896</v>
       </c>
-      <c r="S25" t="n">
+      <c r="AH25" t="n">
         <v>6.621543550796539</v>
       </c>
-      <c r="T25" t="n">
+      <c r="AI25" t="n">
         <v>28.40843841196084</v>
       </c>
-      <c r="U25" t="n">
+      <c r="AJ25" t="n">
         <v>18.21792566529945</v>
       </c>
-      <c r="V25" t="n">
+      <c r="AK25" t="n">
         <v>0.2968701125588326</v>
       </c>
-      <c r="W25" t="n">
+      <c r="AL25" t="n">
         <v>0.1921361860709851</v>
       </c>
-      <c r="X25" t="n">
+      <c r="AM25" t="n">
         <v>0.8503399075009028</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="AN25" t="n">
         <v>0.3536696965814136</v>
       </c>
-      <c r="Z25" t="n">
+      <c r="AO25" t="n">
         <v>0.5004891541016374</v>
       </c>
-      <c r="AA25" t="n">
+      <c r="AP25" t="n">
         <v>0.232530135964495</v>
       </c>
-      <c r="AB25" t="n">
+      <c r="AQ25" t="n">
         <v>0.237515319833655</v>
       </c>
-      <c r="AC25" t="n">
+      <c r="AR25" t="n">
         <v>0.142375989365571</v>
       </c>
-      <c r="AD25" t="n">
+      <c r="AS25" t="n">
         <v>0.220657079662933</v>
       </c>
-      <c r="AE25" t="n">
+      <c r="AT25" t="n">
         <v>0.2268711487266953</v>
       </c>
-      <c r="AF25" t="n">
+      <c r="AU25" t="n">
         <v>4.83211237237944</v>
       </c>
-      <c r="AG25" t="n">
+      <c r="AV25" t="n">
         <v>0.9186299117072928</v>
       </c>
-      <c r="AH25" t="n">
+      <c r="AW25" t="n">
         <v>1.006339837721518</v>
       </c>
-      <c r="AI25" t="n">
+      <c r="AX25" t="n">
         <v>1.379254313607306</v>
       </c>
-      <c r="AJ25" t="n">
+      <c r="AY25" t="n">
         <v>1.52050642541228</v>
       </c>
-      <c r="AK25" t="n">
+      <c r="AZ25" t="n">
         <v>1.893912718676545</v>
       </c>
     </row>
@@ -3343,105 +4498,150 @@
         <v>0.4898979485566356</v>
       </c>
       <c r="D26" t="n">
+        <v>11.67272997570775</v>
+      </c>
+      <c r="E26" t="n">
         <v>3.703387889843678</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
+        <v>21.32515929642619</v>
+      </c>
+      <c r="G26" t="n">
         <v>2.659600777990212</v>
       </c>
-      <c r="F26" t="n">
+      <c r="H26" t="n">
+        <v>25.00332660807801</v>
+      </c>
+      <c r="I26" t="n">
         <v>1.193843309234703</v>
       </c>
-      <c r="G26" t="n">
+      <c r="J26" t="n">
+        <v>20.10937186708833</v>
+      </c>
+      <c r="K26" t="n">
         <v>4.234152575544722</v>
       </c>
-      <c r="H26" t="n">
+      <c r="L26" t="n">
+        <v>26.78348786875552</v>
+      </c>
+      <c r="M26" t="n">
         <v>0.835625756914274</v>
       </c>
-      <c r="I26" t="n">
+      <c r="N26" t="n">
+        <v>25.17730883820839</v>
+      </c>
+      <c r="O26" t="n">
         <v>1.083563557035476</v>
       </c>
-      <c r="J26" t="n">
+      <c r="P26" t="n">
+        <v>25.06922433911187</v>
+      </c>
+      <c r="Q26" t="n">
         <v>2.386261213736079</v>
       </c>
-      <c r="K26" t="n">
+      <c r="R26" t="n">
+        <v>27.08546866894495</v>
+      </c>
+      <c r="S26" t="n">
         <v>3.959555591954206</v>
       </c>
-      <c r="L26" t="n">
+      <c r="T26" t="n">
+        <v>26.91776305532826</v>
+      </c>
+      <c r="U26" t="n">
         <v>3.100340089109944</v>
       </c>
-      <c r="M26" t="n">
+      <c r="V26" t="n">
+        <v>24.79901198603685</v>
+      </c>
+      <c r="W26" t="n">
         <v>2.121769676970244</v>
       </c>
-      <c r="N26" t="n">
+      <c r="X26" t="n">
+        <v>22.7848484121672</v>
+      </c>
+      <c r="Y26" t="n">
         <v>3.611605590189544</v>
       </c>
-      <c r="O26" t="n">
+      <c r="Z26" t="n">
+        <v>18.38286589393302</v>
+      </c>
+      <c r="AA26" t="n">
         <v>1.443489434352453</v>
       </c>
-      <c r="P26" t="n">
+      <c r="AB26" t="n">
+        <v>29.3427102541773</v>
+      </c>
+      <c r="AC26" t="n">
         <v>5.900363204372154</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="AD26" t="n">
+        <v>28.2134496947039</v>
+      </c>
+      <c r="AE26" t="n">
         <v>7.236682596448383</v>
       </c>
-      <c r="R26" t="n">
+      <c r="AF26" t="n">
+        <v>26.33911255427281</v>
+      </c>
+      <c r="AG26" t="n">
         <v>8.24495529100918</v>
       </c>
-      <c r="S26" t="n">
+      <c r="AH26" t="n">
         <v>8.802098937163139</v>
       </c>
-      <c r="T26" t="n">
+      <c r="AI26" t="n">
         <v>29.19613325147992</v>
       </c>
-      <c r="U26" t="n">
+      <c r="AJ26" t="n">
         <v>16.29039327562684</v>
       </c>
-      <c r="V26" t="n">
+      <c r="AK26" t="n">
         <v>0.4900439428159269</v>
       </c>
-      <c r="W26" t="n">
+      <c r="AL26" t="n">
         <v>0.2024554359053683</v>
       </c>
-      <c r="X26" t="n">
+      <c r="AM26" t="n">
         <v>1.10396716152423</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="AN26" t="n">
         <v>0.3633785453128098</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="AO26" t="n">
         <v>0.7057066965382061</v>
       </c>
-      <c r="AA26" t="n">
+      <c r="AP26" t="n">
         <v>0.226326946458136</v>
       </c>
-      <c r="AB26" t="n">
+      <c r="AQ26" t="n">
         <v>0.2309309615833854</v>
       </c>
-      <c r="AC26" t="n">
+      <c r="AR26" t="n">
         <v>0.120526132655965</v>
       </c>
-      <c r="AD26" t="n">
+      <c r="AS26" t="n">
         <v>0.3993532901845551</v>
       </c>
-      <c r="AE26" t="n">
+      <c r="AT26" t="n">
         <v>0.2237135607537992</v>
       </c>
-      <c r="AF26" t="n">
+      <c r="AU26" t="n">
         <v>5.345071094582003</v>
       </c>
-      <c r="AG26" t="n">
+      <c r="AV26" t="n">
         <v>1.231550766148482</v>
       </c>
-      <c r="AH26" t="n">
+      <c r="AW26" t="n">
         <v>1.840928073372286</v>
       </c>
-      <c r="AI26" t="n">
+      <c r="AX26" t="n">
         <v>1.706774777089757</v>
       </c>
-      <c r="AJ26" t="n">
+      <c r="AY26" t="n">
         <v>3.735641957901287</v>
       </c>
-      <c r="AK26" t="n">
+      <c r="AZ26" t="n">
         <v>2.340783643130886</v>
       </c>
     </row>
